--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djgvk\PycharmProjects\testQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340C84C-F61F-4338-8A79-962C2A16FD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23ECC66-7C76-4730-9750-F0D0AB95AE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,32 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>Which of these is the largest planet in the Solar System?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
   <si>
     <t>Multiple Choice</t>
   </si>
   <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Jupiter</t>
-  </si>
-  <si>
-    <t>https://cdn.pixabay.com/photo/2014/09/08/09/24/solar-system-439046_1280.jpg</t>
-  </si>
-  <si>
-    <t>Jupiter is a gas giant made primarily of hydrogen and helium. Unlike terrestrial planets that have solid surfaces, gas giants like Jupiter don't have a well-defined solid surface, allowing them to accumulate more mass in a gaseous form. This composition has allowed Jupiter to grow significantly larger than planets with solid surfaces.</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -76,44 +55,167 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>What is the capital of India?</t>
-  </si>
-  <si>
-    <t>What is the capital of Tamil nadu?</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Kolkatta</t>
-  </si>
-  <si>
-    <t>Tirupathi</t>
-  </si>
-  <si>
-    <t>Madurai</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Trichy</t>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Fraction is a _________</t>
+  </si>
+  <si>
+    <t>a whole thing</t>
+  </si>
+  <si>
+    <t>a part of a whole or collection</t>
+  </si>
+  <si>
+    <t>collective thing</t>
+  </si>
+  <si>
+    <t>collection of things</t>
+  </si>
+  <si>
+    <t>how a fraction looks like?</t>
+  </si>
+  <si>
+    <t>N/D</t>
+  </si>
+  <si>
+    <t>D/A</t>
+  </si>
+  <si>
+    <t>C/B</t>
+  </si>
+  <si>
+    <t>D/N</t>
+  </si>
+  <si>
+    <t>what is not the type of fraction</t>
+  </si>
+  <si>
+    <t>proper fraction</t>
+  </si>
+  <si>
+    <t>improper fraction</t>
+  </si>
+  <si>
+    <t>light fraction</t>
+  </si>
+  <si>
+    <t>mixed fraction</t>
+  </si>
+  <si>
+    <t>Identify the proper fraction</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>4/2</t>
+  </si>
+  <si>
+    <t>1.56</t>
+  </si>
+  <si>
+    <t>25/25</t>
+  </si>
+  <si>
+    <t>Numerator is less than the denominator</t>
+  </si>
+  <si>
+    <t>unit fraction</t>
+  </si>
+  <si>
+    <t>like fractions</t>
+  </si>
+  <si>
+    <t>In a garden there are 5 flowers and 2 of them are yellow in color. How to mention this in mathematics?</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>If Nr &lt; Dr then the fraction is called as</t>
+  </si>
+  <si>
+    <t>unlike fraction</t>
+  </si>
+  <si>
+    <t>what is not the proper fraction in the options</t>
+  </si>
+  <si>
+    <t>5(3/2)</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>8/9</t>
+  </si>
+  <si>
+    <t>If a fraction value always less than one, then it is a____</t>
+  </si>
+  <si>
+    <t>If Nr=Dr, then the fraction is called?</t>
+  </si>
+  <si>
+    <t>if Nr &gt; Dr, then the fraction is called?</t>
+  </si>
+  <si>
+    <t>9/5, 3/2, 9/3, 10/3, 1000/4, 88/11 are which type of fractions?</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All unit fractions are proper fraction </t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>may be</t>
+  </si>
+  <si>
+    <t>not all</t>
+  </si>
+  <si>
+    <t>There are 3 group of baloons. In each group 3 baloons are there. Out of which 7 were bursted. How will you represent this in fraction?</t>
+  </si>
+  <si>
+    <t>6/3</t>
+  </si>
+  <si>
+    <t>7/3</t>
+  </si>
+  <si>
+    <t>9/3</t>
+  </si>
+  <si>
+    <t>10/3</t>
+  </si>
+  <si>
+    <t>whole number+proper fraction - this combination is called:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -164,6 +266,25 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -198,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,12 +336,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,15 +692,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="52.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="6" width="19.6640625" customWidth="1"/>
+    <col min="3" max="6" width="19.6640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" customWidth="1"/>
     <col min="9" max="9" width="61.109375" customWidth="1"/>
@@ -578,66 +709,66 @@
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.2" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6">
         <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6">
-        <v>4</v>
       </c>
       <c r="H2" s="5">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>6</v>
+      <c r="I2" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
@@ -645,19 +776,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -665,184 +796,436 @@
       <c r="H3" s="5">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>27</v>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="F4" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5">
         <v>20</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>20</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>20</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="A9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>20</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="A11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="A12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>20</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>20</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>20</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>20</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>20</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -850,10 +1233,10 @@
     <row r="18" spans="1:9" ht="12.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="6"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -861,10 +1244,10 @@
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="6"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -872,10 +1255,10 @@
     <row r="20" spans="1:9" ht="12.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="6"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -883,10 +1266,10 @@
     <row r="21" spans="1:9" ht="12.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="6"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -894,10 +1277,10 @@
     <row r="22" spans="1:9" ht="12.75" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -905,10 +1288,10 @@
     <row r="23" spans="1:9" ht="12.75" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="6"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -916,10 +1299,10 @@
     <row r="24" spans="1:9" ht="12.75" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="6"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -927,10 +1310,10 @@
     <row r="25" spans="1:9" ht="12.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="6"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -938,10 +1321,10 @@
     <row r="26" spans="1:9" ht="12.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="6"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -949,10 +1332,10 @@
     <row r="27" spans="1:9" ht="12.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="6"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -960,10 +1343,10 @@
     <row r="28" spans="1:9" ht="12.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="6"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -971,10 +1354,10 @@
     <row r="29" spans="1:9" ht="12.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="6"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -982,10 +1365,10 @@
     <row r="30" spans="1:9" ht="12.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="6"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -993,10 +1376,10 @@
     <row r="31" spans="1:9" ht="12.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="6"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1004,10 +1387,10 @@
     <row r="32" spans="1:9" ht="12.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1015,10 +1398,10 @@
     <row r="33" spans="1:9" ht="12.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="6"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1026,10 +1409,10 @@
     <row r="34" spans="1:9" ht="12.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="6"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1037,10 +1420,10 @@
     <row r="35" spans="1:9" ht="12.75" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
       <c r="G35" s="6"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1048,10 +1431,10 @@
     <row r="36" spans="1:9" ht="12.75" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="6"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1059,10 +1442,10 @@
     <row r="37" spans="1:9" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="6"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1070,10 +1453,10 @@
     <row r="38" spans="1:9" ht="12.75" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="6"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -1081,10 +1464,10 @@
     <row r="39" spans="1:9" ht="12.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="6"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1092,10 +1475,10 @@
     <row r="40" spans="1:9" ht="12.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="6"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -1103,10 +1486,10 @@
     <row r="41" spans="1:9" ht="12.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="6"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -1114,10 +1497,10 @@
     <row r="42" spans="1:9" ht="12.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="6"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -1125,10 +1508,10 @@
     <row r="43" spans="1:9" ht="12.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
       <c r="G43" s="6"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -1136,10 +1519,10 @@
     <row r="44" spans="1:9" ht="12.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="6"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -1147,10 +1530,10 @@
     <row r="45" spans="1:9" ht="12.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -1158,10 +1541,10 @@
     <row r="46" spans="1:9" ht="12.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="6"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -1169,10 +1552,10 @@
     <row r="47" spans="1:9" ht="12.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
       <c r="G47" s="6"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -1180,10 +1563,10 @@
     <row r="48" spans="1:9" ht="12.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="6"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -1191,10 +1574,10 @@
     <row r="49" spans="1:9" ht="12.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
       <c r="G49" s="6"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -1202,10 +1585,10 @@
     <row r="50" spans="1:9" ht="12.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -1213,10 +1596,10 @@
     <row r="51" spans="1:9" ht="12.75" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="6"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
@@ -1224,10 +1607,10 @@
     <row r="52" spans="1:9" ht="12.75" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="6"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
@@ -1235,10 +1618,10 @@
     <row r="53" spans="1:9" ht="12.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="6"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1246,10 +1629,10 @@
     <row r="54" spans="1:9" ht="12.75" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="6"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -1257,10 +1640,10 @@
     <row r="55" spans="1:9" ht="12.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="6"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -1268,10 +1651,10 @@
     <row r="56" spans="1:9" ht="12.75" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="6"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -1279,10 +1662,10 @@
     <row r="57" spans="1:9" ht="12.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="6"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1290,10 +1673,10 @@
     <row r="58" spans="1:9" ht="12.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="6"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -1301,10 +1684,10 @@
     <row r="59" spans="1:9" ht="12.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="6"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -1312,10 +1695,10 @@
     <row r="60" spans="1:9" ht="12.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="6"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -1323,10 +1706,10 @@
     <row r="61" spans="1:9" ht="12.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="6"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -1334,10 +1717,10 @@
     <row r="62" spans="1:9" ht="12.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="6"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -1345,10 +1728,10 @@
     <row r="63" spans="1:9" ht="12.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="6"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -1356,10 +1739,10 @@
     <row r="64" spans="1:9" ht="12.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="6"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -1367,10 +1750,10 @@
     <row r="65" spans="1:9" ht="12.75" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="6"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -1378,10 +1761,10 @@
     <row r="66" spans="1:9" ht="12.75" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="6"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -1389,10 +1772,10 @@
     <row r="67" spans="1:9" ht="12.75" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="6"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -1400,10 +1783,10 @@
     <row r="68" spans="1:9" ht="12.75" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="6"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -1411,10 +1794,10 @@
     <row r="69" spans="1:9" ht="12.75" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="6"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -1422,10 +1805,10 @@
     <row r="70" spans="1:9" ht="12.75" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="6"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1433,10 +1816,10 @@
     <row r="71" spans="1:9" ht="12.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="6"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -1444,10 +1827,10 @@
     <row r="72" spans="1:9" ht="12.75" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="6"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -1455,10 +1838,10 @@
     <row r="73" spans="1:9" ht="12.75" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="6"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -1466,10 +1849,10 @@
     <row r="74" spans="1:9" ht="12.75" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="6"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -1477,10 +1860,10 @@
     <row r="75" spans="1:9" ht="12.75" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="6"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -1488,10 +1871,10 @@
     <row r="76" spans="1:9" ht="12.75" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
       <c r="G76" s="6"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -1499,10 +1882,10 @@
     <row r="77" spans="1:9" ht="12.75" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
       <c r="G77" s="6"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -1510,10 +1893,10 @@
     <row r="78" spans="1:9" ht="12.75" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="6"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -1521,10 +1904,10 @@
     <row r="79" spans="1:9" ht="12.75" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="6"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -1532,10 +1915,10 @@
     <row r="80" spans="1:9" ht="12.75" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="6"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -1543,10 +1926,10 @@
     <row r="81" spans="1:9" ht="12.75" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="6"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -1554,10 +1937,10 @@
     <row r="82" spans="1:9" ht="12.75" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="6"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -1565,10 +1948,10 @@
     <row r="83" spans="1:9" ht="12.75" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="6"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -1576,10 +1959,10 @@
     <row r="84" spans="1:9" ht="12.75" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="6"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -1587,10 +1970,10 @@
     <row r="85" spans="1:9" ht="12.75" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="6"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -1598,10 +1981,10 @@
     <row r="86" spans="1:9" ht="12.75" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="6"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
@@ -1609,10 +1992,10 @@
     <row r="87" spans="1:9" ht="12.75" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
       <c r="G87" s="6"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
@@ -1620,10 +2003,10 @@
     <row r="88" spans="1:9" ht="12.75" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="6"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
@@ -1631,10 +2014,10 @@
     <row r="89" spans="1:9" ht="12.75" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
       <c r="G89" s="6"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -1642,10 +2025,10 @@
     <row r="90" spans="1:9" ht="12.75" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="6"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -1653,10 +2036,10 @@
     <row r="91" spans="1:9" ht="12.75" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="6"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -1664,10 +2047,10 @@
     <row r="92" spans="1:9" ht="12.75" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="6"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -1675,10 +2058,10 @@
     <row r="93" spans="1:9" ht="12.75" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="6"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -1686,10 +2069,10 @@
     <row r="94" spans="1:9" ht="12.75" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="6"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -1697,10 +2080,10 @@
     <row r="95" spans="1:9" ht="12.75" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="6"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -1708,10 +2091,10 @@
     <row r="96" spans="1:9" ht="12.75" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="6"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -1719,10 +2102,10 @@
     <row r="97" spans="1:9" ht="12.75" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="6"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -1730,10 +2113,10 @@
     <row r="98" spans="1:9" ht="12.75" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="6"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -1741,10 +2124,10 @@
     <row r="99" spans="1:9" ht="12.75" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="6"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -1752,10 +2135,10 @@
     <row r="100" spans="1:9" ht="12.75" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="6"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -1763,3605 +2146,3605 @@
     <row r="101" spans="1:9" ht="12.75" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="6"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B102" s="9"/>
-      <c r="H102" s="9"/>
+      <c r="B102" s="8"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="B103" s="8"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="B104" s="8"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B105" s="9"/>
-      <c r="H105" s="9"/>
+      <c r="B105" s="8"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="B106" s="8"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="B107" s="8"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="B108" s="8"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="B109" s="8"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="B110" s="8"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="B111" s="8"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1">
-      <c r="B112" s="9"/>
-      <c r="H112" s="9"/>
+      <c r="B112" s="8"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B113" s="9"/>
-      <c r="H113" s="9"/>
+      <c r="B113" s="8"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B114" s="9"/>
-      <c r="H114" s="9"/>
+      <c r="B114" s="8"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B115" s="9"/>
-      <c r="H115" s="9"/>
+      <c r="B115" s="8"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="B116" s="8"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="B117" s="8"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B118" s="9"/>
-      <c r="H118" s="9"/>
+      <c r="B118" s="8"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="B119" s="8"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B120" s="9"/>
-      <c r="H120" s="9"/>
+      <c r="B120" s="8"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B121" s="9"/>
-      <c r="H121" s="9"/>
+      <c r="B121" s="8"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B122" s="9"/>
-      <c r="H122" s="9"/>
+      <c r="B122" s="8"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B123" s="9"/>
-      <c r="H123" s="9"/>
+      <c r="B123" s="8"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B124" s="9"/>
-      <c r="H124" s="9"/>
+      <c r="B124" s="8"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="B125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="B126" s="8"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="B127" s="8"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="B128" s="8"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="B129" s="8"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="B130" s="8"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="B131" s="8"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B132" s="9"/>
-      <c r="H132" s="9"/>
+      <c r="B132" s="8"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B133" s="9"/>
-      <c r="H133" s="9"/>
+      <c r="B133" s="8"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="B134" s="8"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B135" s="9"/>
-      <c r="H135" s="9"/>
+      <c r="B135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B136" s="9"/>
-      <c r="H136" s="9"/>
+      <c r="B136" s="8"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B137" s="9"/>
-      <c r="H137" s="9"/>
+      <c r="B137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B138" s="9"/>
-      <c r="H138" s="9"/>
+      <c r="B138" s="8"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B139" s="9"/>
-      <c r="H139" s="9"/>
+      <c r="B139" s="8"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B140" s="9"/>
-      <c r="H140" s="9"/>
+      <c r="B140" s="8"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="B141" s="8"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B142" s="9"/>
-      <c r="H142" s="9"/>
+      <c r="B142" s="8"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B143" s="9"/>
-      <c r="H143" s="9"/>
+      <c r="B143" s="8"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B144" s="9"/>
-      <c r="H144" s="9"/>
+      <c r="B144" s="8"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B145" s="9"/>
-      <c r="H145" s="9"/>
+      <c r="B145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B146" s="9"/>
-      <c r="H146" s="9"/>
+      <c r="B146" s="8"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B147" s="9"/>
-      <c r="H147" s="9"/>
+      <c r="B147" s="8"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B148" s="9"/>
-      <c r="H148" s="9"/>
+      <c r="B148" s="8"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B149" s="9"/>
-      <c r="H149" s="9"/>
+      <c r="B149" s="8"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B150" s="9"/>
-      <c r="H150" s="9"/>
+      <c r="B150" s="8"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B151" s="9"/>
-      <c r="H151" s="9"/>
+      <c r="B151" s="8"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B152" s="9"/>
-      <c r="H152" s="9"/>
+      <c r="B152" s="8"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B153" s="9"/>
-      <c r="H153" s="9"/>
+      <c r="B153" s="8"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B154" s="9"/>
-      <c r="H154" s="9"/>
+      <c r="B154" s="8"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B155" s="9"/>
-      <c r="H155" s="9"/>
+      <c r="B155" s="8"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B156" s="9"/>
-      <c r="H156" s="9"/>
+      <c r="B156" s="8"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B157" s="9"/>
-      <c r="H157" s="9"/>
+      <c r="B157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B158" s="9"/>
-      <c r="H158" s="9"/>
+      <c r="B158" s="8"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B159" s="9"/>
-      <c r="H159" s="9"/>
+      <c r="B159" s="8"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B160" s="9"/>
-      <c r="H160" s="9"/>
+      <c r="B160" s="8"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B161" s="9"/>
-      <c r="H161" s="9"/>
+      <c r="B161" s="8"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B162" s="9"/>
-      <c r="H162" s="9"/>
+      <c r="B162" s="8"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B163" s="9"/>
-      <c r="H163" s="9"/>
+      <c r="B163" s="8"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B164" s="9"/>
-      <c r="H164" s="9"/>
+      <c r="B164" s="8"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B165" s="9"/>
-      <c r="H165" s="9"/>
+      <c r="B165" s="8"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B166" s="9"/>
-      <c r="H166" s="9"/>
+      <c r="B166" s="8"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B167" s="9"/>
-      <c r="H167" s="9"/>
+      <c r="B167" s="8"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B168" s="9"/>
-      <c r="H168" s="9"/>
+      <c r="B168" s="8"/>
+      <c r="H168" s="8"/>
     </row>
     <row r="169" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B169" s="9"/>
-      <c r="H169" s="9"/>
+      <c r="B169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B170" s="9"/>
-      <c r="H170" s="9"/>
+      <c r="B170" s="8"/>
+      <c r="H170" s="8"/>
     </row>
     <row r="171" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B171" s="9"/>
-      <c r="H171" s="9"/>
+      <c r="B171" s="8"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B172" s="9"/>
-      <c r="H172" s="9"/>
+      <c r="B172" s="8"/>
+      <c r="H172" s="8"/>
     </row>
     <row r="173" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B173" s="9"/>
-      <c r="H173" s="9"/>
+      <c r="B173" s="8"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B174" s="9"/>
-      <c r="H174" s="9"/>
+      <c r="B174" s="8"/>
+      <c r="H174" s="8"/>
     </row>
     <row r="175" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B175" s="9"/>
-      <c r="H175" s="9"/>
+      <c r="B175" s="8"/>
+      <c r="H175" s="8"/>
     </row>
     <row r="176" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B176" s="9"/>
-      <c r="H176" s="9"/>
+      <c r="B176" s="8"/>
+      <c r="H176" s="8"/>
     </row>
     <row r="177" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B177" s="9"/>
-      <c r="H177" s="9"/>
+      <c r="B177" s="8"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B178" s="9"/>
-      <c r="H178" s="9"/>
+      <c r="B178" s="8"/>
+      <c r="H178" s="8"/>
     </row>
     <row r="179" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B179" s="9"/>
-      <c r="H179" s="9"/>
+      <c r="B179" s="8"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B180" s="9"/>
-      <c r="H180" s="9"/>
+      <c r="B180" s="8"/>
+      <c r="H180" s="8"/>
     </row>
     <row r="181" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B181" s="9"/>
-      <c r="H181" s="9"/>
+      <c r="B181" s="8"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B182" s="9"/>
-      <c r="H182" s="9"/>
+      <c r="B182" s="8"/>
+      <c r="H182" s="8"/>
     </row>
     <row r="183" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B183" s="9"/>
-      <c r="H183" s="9"/>
+      <c r="B183" s="8"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B184" s="9"/>
-      <c r="H184" s="9"/>
+      <c r="B184" s="8"/>
+      <c r="H184" s="8"/>
     </row>
     <row r="185" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B185" s="9"/>
-      <c r="H185" s="9"/>
+      <c r="B185" s="8"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B186" s="9"/>
-      <c r="H186" s="9"/>
+      <c r="B186" s="8"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B187" s="9"/>
-      <c r="H187" s="9"/>
+      <c r="B187" s="8"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B188" s="9"/>
-      <c r="H188" s="9"/>
+      <c r="B188" s="8"/>
+      <c r="H188" s="8"/>
     </row>
     <row r="189" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B189" s="9"/>
-      <c r="H189" s="9"/>
+      <c r="B189" s="8"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B190" s="9"/>
-      <c r="H190" s="9"/>
+      <c r="B190" s="8"/>
+      <c r="H190" s="8"/>
     </row>
     <row r="191" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B191" s="9"/>
-      <c r="H191" s="9"/>
+      <c r="B191" s="8"/>
+      <c r="H191" s="8"/>
     </row>
     <row r="192" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B192" s="9"/>
-      <c r="H192" s="9"/>
+      <c r="B192" s="8"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B193" s="9"/>
-      <c r="H193" s="9"/>
+      <c r="B193" s="8"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B194" s="9"/>
-      <c r="H194" s="9"/>
+      <c r="B194" s="8"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B195" s="9"/>
-      <c r="H195" s="9"/>
+      <c r="B195" s="8"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B196" s="9"/>
-      <c r="H196" s="9"/>
+      <c r="B196" s="8"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B197" s="9"/>
-      <c r="H197" s="9"/>
+      <c r="B197" s="8"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B198" s="9"/>
-      <c r="H198" s="9"/>
+      <c r="B198" s="8"/>
+      <c r="H198" s="8"/>
     </row>
     <row r="199" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B199" s="9"/>
-      <c r="H199" s="9"/>
+      <c r="B199" s="8"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B200" s="9"/>
-      <c r="H200" s="9"/>
+      <c r="B200" s="8"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B201" s="9"/>
-      <c r="H201" s="9"/>
+      <c r="B201" s="8"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B202" s="9"/>
-      <c r="H202" s="9"/>
+      <c r="B202" s="8"/>
+      <c r="H202" s="8"/>
     </row>
     <row r="203" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B203" s="9"/>
-      <c r="H203" s="9"/>
+      <c r="B203" s="8"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B204" s="9"/>
-      <c r="H204" s="9"/>
+      <c r="B204" s="8"/>
+      <c r="H204" s="8"/>
     </row>
     <row r="205" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B205" s="9"/>
-      <c r="H205" s="9"/>
+      <c r="B205" s="8"/>
+      <c r="H205" s="8"/>
     </row>
     <row r="206" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B206" s="9"/>
-      <c r="H206" s="9"/>
+      <c r="B206" s="8"/>
+      <c r="H206" s="8"/>
     </row>
     <row r="207" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B207" s="9"/>
-      <c r="H207" s="9"/>
+      <c r="B207" s="8"/>
+      <c r="H207" s="8"/>
     </row>
     <row r="208" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B208" s="9"/>
-      <c r="H208" s="9"/>
+      <c r="B208" s="8"/>
+      <c r="H208" s="8"/>
     </row>
     <row r="209" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B209" s="9"/>
-      <c r="H209" s="9"/>
+      <c r="B209" s="8"/>
+      <c r="H209" s="8"/>
     </row>
     <row r="210" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B210" s="9"/>
-      <c r="H210" s="9"/>
+      <c r="B210" s="8"/>
+      <c r="H210" s="8"/>
     </row>
     <row r="211" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B211" s="9"/>
-      <c r="H211" s="9"/>
+      <c r="B211" s="8"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B212" s="9"/>
-      <c r="H212" s="9"/>
+      <c r="B212" s="8"/>
+      <c r="H212" s="8"/>
     </row>
     <row r="213" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B213" s="9"/>
-      <c r="H213" s="9"/>
+      <c r="B213" s="8"/>
+      <c r="H213" s="8"/>
     </row>
     <row r="214" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B214" s="9"/>
-      <c r="H214" s="9"/>
+      <c r="B214" s="8"/>
+      <c r="H214" s="8"/>
     </row>
     <row r="215" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B215" s="9"/>
-      <c r="H215" s="9"/>
+      <c r="B215" s="8"/>
+      <c r="H215" s="8"/>
     </row>
     <row r="216" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B216" s="9"/>
-      <c r="H216" s="9"/>
+      <c r="B216" s="8"/>
+      <c r="H216" s="8"/>
     </row>
     <row r="217" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B217" s="9"/>
-      <c r="H217" s="9"/>
+      <c r="B217" s="8"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B218" s="9"/>
-      <c r="H218" s="9"/>
+      <c r="B218" s="8"/>
+      <c r="H218" s="8"/>
     </row>
     <row r="219" spans="2:8" ht="12.75" customHeight="1">
-      <c r="B219" s="9"/>
-      <c r="H219" s="9"/>
+      <c r="B219" s="8"/>
+      <c r="H219" s="8"/>
     </row>
     <row r="220" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B220" s="10"/>
-      <c r="H220" s="10"/>
+      <c r="B220" s="9"/>
+      <c r="H220" s="9"/>
     </row>
     <row r="221" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B221" s="10"/>
-      <c r="H221" s="10"/>
+      <c r="B221" s="9"/>
+      <c r="H221" s="9"/>
     </row>
     <row r="222" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B222" s="10"/>
-      <c r="H222" s="10"/>
+      <c r="B222" s="9"/>
+      <c r="H222" s="9"/>
     </row>
     <row r="223" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B223" s="10"/>
-      <c r="H223" s="10"/>
+      <c r="B223" s="9"/>
+      <c r="H223" s="9"/>
     </row>
     <row r="224" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B224" s="10"/>
-      <c r="H224" s="10"/>
+      <c r="B224" s="9"/>
+      <c r="H224" s="9"/>
     </row>
     <row r="225" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B225" s="10"/>
-      <c r="H225" s="10"/>
+      <c r="B225" s="9"/>
+      <c r="H225" s="9"/>
     </row>
     <row r="226" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B226" s="10"/>
-      <c r="H226" s="10"/>
+      <c r="B226" s="9"/>
+      <c r="H226" s="9"/>
     </row>
     <row r="227" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B227" s="10"/>
-      <c r="H227" s="10"/>
+      <c r="B227" s="9"/>
+      <c r="H227" s="9"/>
     </row>
     <row r="228" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B228" s="10"/>
-      <c r="H228" s="10"/>
+      <c r="B228" s="9"/>
+      <c r="H228" s="9"/>
     </row>
     <row r="229" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B229" s="10"/>
-      <c r="H229" s="10"/>
+      <c r="B229" s="9"/>
+      <c r="H229" s="9"/>
     </row>
     <row r="230" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B230" s="10"/>
-      <c r="H230" s="10"/>
+      <c r="B230" s="9"/>
+      <c r="H230" s="9"/>
     </row>
     <row r="231" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B231" s="10"/>
-      <c r="H231" s="10"/>
+      <c r="B231" s="9"/>
+      <c r="H231" s="9"/>
     </row>
     <row r="232" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B232" s="10"/>
-      <c r="H232" s="10"/>
+      <c r="B232" s="9"/>
+      <c r="H232" s="9"/>
     </row>
     <row r="233" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B233" s="10"/>
-      <c r="H233" s="10"/>
+      <c r="B233" s="9"/>
+      <c r="H233" s="9"/>
     </row>
     <row r="234" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B234" s="10"/>
-      <c r="H234" s="10"/>
+      <c r="B234" s="9"/>
+      <c r="H234" s="9"/>
     </row>
     <row r="235" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B235" s="10"/>
-      <c r="H235" s="10"/>
+      <c r="B235" s="9"/>
+      <c r="H235" s="9"/>
     </row>
     <row r="236" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B236" s="10"/>
-      <c r="H236" s="10"/>
+      <c r="B236" s="9"/>
+      <c r="H236" s="9"/>
     </row>
     <row r="237" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B237" s="10"/>
-      <c r="H237" s="10"/>
+      <c r="B237" s="9"/>
+      <c r="H237" s="9"/>
     </row>
     <row r="238" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B238" s="10"/>
-      <c r="H238" s="10"/>
+      <c r="B238" s="9"/>
+      <c r="H238" s="9"/>
     </row>
     <row r="239" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B239" s="10"/>
-      <c r="H239" s="10"/>
+      <c r="B239" s="9"/>
+      <c r="H239" s="9"/>
     </row>
     <row r="240" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B240" s="10"/>
-      <c r="H240" s="10"/>
+      <c r="B240" s="9"/>
+      <c r="H240" s="9"/>
     </row>
     <row r="241" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B241" s="10"/>
-      <c r="H241" s="10"/>
+      <c r="B241" s="9"/>
+      <c r="H241" s="9"/>
     </row>
     <row r="242" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B242" s="10"/>
-      <c r="H242" s="10"/>
+      <c r="B242" s="9"/>
+      <c r="H242" s="9"/>
     </row>
     <row r="243" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B243" s="10"/>
-      <c r="H243" s="10"/>
+      <c r="B243" s="9"/>
+      <c r="H243" s="9"/>
     </row>
     <row r="244" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B244" s="10"/>
-      <c r="H244" s="10"/>
+      <c r="B244" s="9"/>
+      <c r="H244" s="9"/>
     </row>
     <row r="245" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B245" s="10"/>
-      <c r="H245" s="10"/>
+      <c r="B245" s="9"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B246" s="10"/>
-      <c r="H246" s="10"/>
+      <c r="B246" s="9"/>
+      <c r="H246" s="9"/>
     </row>
     <row r="247" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B247" s="10"/>
-      <c r="H247" s="10"/>
+      <c r="B247" s="9"/>
+      <c r="H247" s="9"/>
     </row>
     <row r="248" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B248" s="10"/>
-      <c r="H248" s="10"/>
+      <c r="B248" s="9"/>
+      <c r="H248" s="9"/>
     </row>
     <row r="249" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B249" s="10"/>
-      <c r="H249" s="10"/>
+      <c r="B249" s="9"/>
+      <c r="H249" s="9"/>
     </row>
     <row r="250" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B250" s="10"/>
-      <c r="H250" s="10"/>
+      <c r="B250" s="9"/>
+      <c r="H250" s="9"/>
     </row>
     <row r="251" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B251" s="10"/>
-      <c r="H251" s="10"/>
+      <c r="B251" s="9"/>
+      <c r="H251" s="9"/>
     </row>
     <row r="252" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B252" s="10"/>
-      <c r="H252" s="10"/>
+      <c r="B252" s="9"/>
+      <c r="H252" s="9"/>
     </row>
     <row r="253" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B253" s="10"/>
-      <c r="H253" s="10"/>
+      <c r="B253" s="9"/>
+      <c r="H253" s="9"/>
     </row>
     <row r="254" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B254" s="10"/>
-      <c r="H254" s="10"/>
+      <c r="B254" s="9"/>
+      <c r="H254" s="9"/>
     </row>
     <row r="255" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B255" s="10"/>
-      <c r="H255" s="10"/>
+      <c r="B255" s="9"/>
+      <c r="H255" s="9"/>
     </row>
     <row r="256" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B256" s="10"/>
-      <c r="H256" s="10"/>
+      <c r="B256" s="9"/>
+      <c r="H256" s="9"/>
     </row>
     <row r="257" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B257" s="10"/>
-      <c r="H257" s="10"/>
+      <c r="B257" s="9"/>
+      <c r="H257" s="9"/>
     </row>
     <row r="258" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B258" s="10"/>
-      <c r="H258" s="10"/>
+      <c r="B258" s="9"/>
+      <c r="H258" s="9"/>
     </row>
     <row r="259" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B259" s="10"/>
-      <c r="H259" s="10"/>
+      <c r="B259" s="9"/>
+      <c r="H259" s="9"/>
     </row>
     <row r="260" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B260" s="10"/>
-      <c r="H260" s="10"/>
+      <c r="B260" s="9"/>
+      <c r="H260" s="9"/>
     </row>
     <row r="261" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B261" s="10"/>
-      <c r="H261" s="10"/>
+      <c r="B261" s="9"/>
+      <c r="H261" s="9"/>
     </row>
     <row r="262" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B262" s="10"/>
-      <c r="H262" s="10"/>
+      <c r="B262" s="9"/>
+      <c r="H262" s="9"/>
     </row>
     <row r="263" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B263" s="10"/>
-      <c r="H263" s="10"/>
+      <c r="B263" s="9"/>
+      <c r="H263" s="9"/>
     </row>
     <row r="264" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B264" s="10"/>
-      <c r="H264" s="10"/>
+      <c r="B264" s="9"/>
+      <c r="H264" s="9"/>
     </row>
     <row r="265" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B265" s="10"/>
-      <c r="H265" s="10"/>
+      <c r="B265" s="9"/>
+      <c r="H265" s="9"/>
     </row>
     <row r="266" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B266" s="10"/>
-      <c r="H266" s="10"/>
+      <c r="B266" s="9"/>
+      <c r="H266" s="9"/>
     </row>
     <row r="267" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B267" s="10"/>
-      <c r="H267" s="10"/>
+      <c r="B267" s="9"/>
+      <c r="H267" s="9"/>
     </row>
     <row r="268" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B268" s="10"/>
-      <c r="H268" s="10"/>
+      <c r="B268" s="9"/>
+      <c r="H268" s="9"/>
     </row>
     <row r="269" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B269" s="10"/>
-      <c r="H269" s="10"/>
+      <c r="B269" s="9"/>
+      <c r="H269" s="9"/>
     </row>
     <row r="270" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B270" s="10"/>
-      <c r="H270" s="10"/>
+      <c r="B270" s="9"/>
+      <c r="H270" s="9"/>
     </row>
     <row r="271" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B271" s="10"/>
-      <c r="H271" s="10"/>
+      <c r="B271" s="9"/>
+      <c r="H271" s="9"/>
     </row>
     <row r="272" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B272" s="10"/>
-      <c r="H272" s="10"/>
+      <c r="B272" s="9"/>
+      <c r="H272" s="9"/>
     </row>
     <row r="273" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B273" s="10"/>
-      <c r="H273" s="10"/>
+      <c r="B273" s="9"/>
+      <c r="H273" s="9"/>
     </row>
     <row r="274" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B274" s="10"/>
-      <c r="H274" s="10"/>
+      <c r="B274" s="9"/>
+      <c r="H274" s="9"/>
     </row>
     <row r="275" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B275" s="10"/>
-      <c r="H275" s="10"/>
+      <c r="B275" s="9"/>
+      <c r="H275" s="9"/>
     </row>
     <row r="276" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B276" s="10"/>
-      <c r="H276" s="10"/>
+      <c r="B276" s="9"/>
+      <c r="H276" s="9"/>
     </row>
     <row r="277" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B277" s="10"/>
-      <c r="H277" s="10"/>
+      <c r="B277" s="9"/>
+      <c r="H277" s="9"/>
     </row>
     <row r="278" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B278" s="10"/>
-      <c r="H278" s="10"/>
+      <c r="B278" s="9"/>
+      <c r="H278" s="9"/>
     </row>
     <row r="279" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B279" s="10"/>
-      <c r="H279" s="10"/>
+      <c r="B279" s="9"/>
+      <c r="H279" s="9"/>
     </row>
     <row r="280" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B280" s="10"/>
-      <c r="H280" s="10"/>
+      <c r="B280" s="9"/>
+      <c r="H280" s="9"/>
     </row>
     <row r="281" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B281" s="10"/>
-      <c r="H281" s="10"/>
+      <c r="B281" s="9"/>
+      <c r="H281" s="9"/>
     </row>
     <row r="282" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B282" s="10"/>
-      <c r="H282" s="10"/>
+      <c r="B282" s="9"/>
+      <c r="H282" s="9"/>
     </row>
     <row r="283" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B283" s="10"/>
-      <c r="H283" s="10"/>
+      <c r="B283" s="9"/>
+      <c r="H283" s="9"/>
     </row>
     <row r="284" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B284" s="10"/>
-      <c r="H284" s="10"/>
+      <c r="B284" s="9"/>
+      <c r="H284" s="9"/>
     </row>
     <row r="285" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B285" s="10"/>
-      <c r="H285" s="10"/>
+      <c r="B285" s="9"/>
+      <c r="H285" s="9"/>
     </row>
     <row r="286" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B286" s="10"/>
-      <c r="H286" s="10"/>
+      <c r="B286" s="9"/>
+      <c r="H286" s="9"/>
     </row>
     <row r="287" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B287" s="10"/>
-      <c r="H287" s="10"/>
+      <c r="B287" s="9"/>
+      <c r="H287" s="9"/>
     </row>
     <row r="288" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B288" s="10"/>
-      <c r="H288" s="10"/>
+      <c r="B288" s="9"/>
+      <c r="H288" s="9"/>
     </row>
     <row r="289" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B289" s="10"/>
-      <c r="H289" s="10"/>
+      <c r="B289" s="9"/>
+      <c r="H289" s="9"/>
     </row>
     <row r="290" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B290" s="10"/>
-      <c r="H290" s="10"/>
+      <c r="B290" s="9"/>
+      <c r="H290" s="9"/>
     </row>
     <row r="291" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B291" s="10"/>
-      <c r="H291" s="10"/>
+      <c r="B291" s="9"/>
+      <c r="H291" s="9"/>
     </row>
     <row r="292" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B292" s="10"/>
-      <c r="H292" s="10"/>
+      <c r="B292" s="9"/>
+      <c r="H292" s="9"/>
     </row>
     <row r="293" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B293" s="10"/>
-      <c r="H293" s="10"/>
+      <c r="B293" s="9"/>
+      <c r="H293" s="9"/>
     </row>
     <row r="294" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B294" s="10"/>
-      <c r="H294" s="10"/>
+      <c r="B294" s="9"/>
+      <c r="H294" s="9"/>
     </row>
     <row r="295" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B295" s="10"/>
-      <c r="H295" s="10"/>
+      <c r="B295" s="9"/>
+      <c r="H295" s="9"/>
     </row>
     <row r="296" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B296" s="10"/>
-      <c r="H296" s="10"/>
+      <c r="B296" s="9"/>
+      <c r="H296" s="9"/>
     </row>
     <row r="297" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B297" s="10"/>
-      <c r="H297" s="10"/>
+      <c r="B297" s="9"/>
+      <c r="H297" s="9"/>
     </row>
     <row r="298" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B298" s="10"/>
-      <c r="H298" s="10"/>
+      <c r="B298" s="9"/>
+      <c r="H298" s="9"/>
     </row>
     <row r="299" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B299" s="10"/>
-      <c r="H299" s="10"/>
+      <c r="B299" s="9"/>
+      <c r="H299" s="9"/>
     </row>
     <row r="300" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B300" s="10"/>
-      <c r="H300" s="10"/>
+      <c r="B300" s="9"/>
+      <c r="H300" s="9"/>
     </row>
     <row r="301" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B301" s="10"/>
-      <c r="H301" s="10"/>
+      <c r="B301" s="9"/>
+      <c r="H301" s="9"/>
     </row>
     <row r="302" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B302" s="10"/>
-      <c r="H302" s="10"/>
+      <c r="B302" s="9"/>
+      <c r="H302" s="9"/>
     </row>
     <row r="303" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B303" s="10"/>
-      <c r="H303" s="10"/>
+      <c r="B303" s="9"/>
+      <c r="H303" s="9"/>
     </row>
     <row r="304" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B304" s="10"/>
-      <c r="H304" s="10"/>
+      <c r="B304" s="9"/>
+      <c r="H304" s="9"/>
     </row>
     <row r="305" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B305" s="10"/>
-      <c r="H305" s="10"/>
+      <c r="B305" s="9"/>
+      <c r="H305" s="9"/>
     </row>
     <row r="306" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B306" s="10"/>
-      <c r="H306" s="10"/>
+      <c r="B306" s="9"/>
+      <c r="H306" s="9"/>
     </row>
     <row r="307" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B307" s="10"/>
-      <c r="H307" s="10"/>
+      <c r="B307" s="9"/>
+      <c r="H307" s="9"/>
     </row>
     <row r="308" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B308" s="10"/>
-      <c r="H308" s="10"/>
+      <c r="B308" s="9"/>
+      <c r="H308" s="9"/>
     </row>
     <row r="309" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B309" s="10"/>
-      <c r="H309" s="10"/>
+      <c r="B309" s="9"/>
+      <c r="H309" s="9"/>
     </row>
     <row r="310" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B310" s="10"/>
-      <c r="H310" s="10"/>
+      <c r="B310" s="9"/>
+      <c r="H310" s="9"/>
     </row>
     <row r="311" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B311" s="10"/>
-      <c r="H311" s="10"/>
+      <c r="B311" s="9"/>
+      <c r="H311" s="9"/>
     </row>
     <row r="312" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B312" s="10"/>
-      <c r="H312" s="10"/>
+      <c r="B312" s="9"/>
+      <c r="H312" s="9"/>
     </row>
     <row r="313" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B313" s="10"/>
-      <c r="H313" s="10"/>
+      <c r="B313" s="9"/>
+      <c r="H313" s="9"/>
     </row>
     <row r="314" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B314" s="10"/>
-      <c r="H314" s="10"/>
+      <c r="B314" s="9"/>
+      <c r="H314" s="9"/>
     </row>
     <row r="315" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B315" s="10"/>
-      <c r="H315" s="10"/>
+      <c r="B315" s="9"/>
+      <c r="H315" s="9"/>
     </row>
     <row r="316" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B316" s="10"/>
-      <c r="H316" s="10"/>
+      <c r="B316" s="9"/>
+      <c r="H316" s="9"/>
     </row>
     <row r="317" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B317" s="10"/>
-      <c r="H317" s="10"/>
+      <c r="B317" s="9"/>
+      <c r="H317" s="9"/>
     </row>
     <row r="318" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B318" s="10"/>
-      <c r="H318" s="10"/>
+      <c r="B318" s="9"/>
+      <c r="H318" s="9"/>
     </row>
     <row r="319" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B319" s="10"/>
-      <c r="H319" s="10"/>
+      <c r="B319" s="9"/>
+      <c r="H319" s="9"/>
     </row>
     <row r="320" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B320" s="10"/>
-      <c r="H320" s="10"/>
+      <c r="B320" s="9"/>
+      <c r="H320" s="9"/>
     </row>
     <row r="321" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B321" s="10"/>
-      <c r="H321" s="10"/>
+      <c r="B321" s="9"/>
+      <c r="H321" s="9"/>
     </row>
     <row r="322" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B322" s="10"/>
-      <c r="H322" s="10"/>
+      <c r="B322" s="9"/>
+      <c r="H322" s="9"/>
     </row>
     <row r="323" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B323" s="10"/>
-      <c r="H323" s="10"/>
+      <c r="B323" s="9"/>
+      <c r="H323" s="9"/>
     </row>
     <row r="324" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B324" s="10"/>
-      <c r="H324" s="10"/>
+      <c r="B324" s="9"/>
+      <c r="H324" s="9"/>
     </row>
     <row r="325" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B325" s="10"/>
-      <c r="H325" s="10"/>
+      <c r="B325" s="9"/>
+      <c r="H325" s="9"/>
     </row>
     <row r="326" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B326" s="10"/>
-      <c r="H326" s="10"/>
+      <c r="B326" s="9"/>
+      <c r="H326" s="9"/>
     </row>
     <row r="327" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B327" s="10"/>
-      <c r="H327" s="10"/>
+      <c r="B327" s="9"/>
+      <c r="H327" s="9"/>
     </row>
     <row r="328" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B328" s="10"/>
-      <c r="H328" s="10"/>
+      <c r="B328" s="9"/>
+      <c r="H328" s="9"/>
     </row>
     <row r="329" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B329" s="10"/>
-      <c r="H329" s="10"/>
+      <c r="B329" s="9"/>
+      <c r="H329" s="9"/>
     </row>
     <row r="330" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B330" s="10"/>
-      <c r="H330" s="10"/>
+      <c r="B330" s="9"/>
+      <c r="H330" s="9"/>
     </row>
     <row r="331" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B331" s="10"/>
-      <c r="H331" s="10"/>
+      <c r="B331" s="9"/>
+      <c r="H331" s="9"/>
     </row>
     <row r="332" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B332" s="10"/>
-      <c r="H332" s="10"/>
+      <c r="B332" s="9"/>
+      <c r="H332" s="9"/>
     </row>
     <row r="333" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B333" s="10"/>
-      <c r="H333" s="10"/>
+      <c r="B333" s="9"/>
+      <c r="H333" s="9"/>
     </row>
     <row r="334" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B334" s="10"/>
-      <c r="H334" s="10"/>
+      <c r="B334" s="9"/>
+      <c r="H334" s="9"/>
     </row>
     <row r="335" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B335" s="10"/>
-      <c r="H335" s="10"/>
+      <c r="B335" s="9"/>
+      <c r="H335" s="9"/>
     </row>
     <row r="336" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B336" s="10"/>
-      <c r="H336" s="10"/>
+      <c r="B336" s="9"/>
+      <c r="H336" s="9"/>
     </row>
     <row r="337" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B337" s="10"/>
-      <c r="H337" s="10"/>
+      <c r="B337" s="9"/>
+      <c r="H337" s="9"/>
     </row>
     <row r="338" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B338" s="10"/>
-      <c r="H338" s="10"/>
+      <c r="B338" s="9"/>
+      <c r="H338" s="9"/>
     </row>
     <row r="339" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B339" s="10"/>
-      <c r="H339" s="10"/>
+      <c r="B339" s="9"/>
+      <c r="H339" s="9"/>
     </row>
     <row r="340" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B340" s="10"/>
-      <c r="H340" s="10"/>
+      <c r="B340" s="9"/>
+      <c r="H340" s="9"/>
     </row>
     <row r="341" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B341" s="10"/>
-      <c r="H341" s="10"/>
+      <c r="B341" s="9"/>
+      <c r="H341" s="9"/>
     </row>
     <row r="342" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B342" s="10"/>
-      <c r="H342" s="10"/>
+      <c r="B342" s="9"/>
+      <c r="H342" s="9"/>
     </row>
     <row r="343" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B343" s="10"/>
-      <c r="H343" s="10"/>
+      <c r="B343" s="9"/>
+      <c r="H343" s="9"/>
     </row>
     <row r="344" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B344" s="10"/>
-      <c r="H344" s="10"/>
+      <c r="B344" s="9"/>
+      <c r="H344" s="9"/>
     </row>
     <row r="345" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B345" s="10"/>
-      <c r="H345" s="10"/>
+      <c r="B345" s="9"/>
+      <c r="H345" s="9"/>
     </row>
     <row r="346" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B346" s="10"/>
-      <c r="H346" s="10"/>
+      <c r="B346" s="9"/>
+      <c r="H346" s="9"/>
     </row>
     <row r="347" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B347" s="10"/>
-      <c r="H347" s="10"/>
+      <c r="B347" s="9"/>
+      <c r="H347" s="9"/>
     </row>
     <row r="348" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B348" s="10"/>
-      <c r="H348" s="10"/>
+      <c r="B348" s="9"/>
+      <c r="H348" s="9"/>
     </row>
     <row r="349" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B349" s="10"/>
-      <c r="H349" s="10"/>
+      <c r="B349" s="9"/>
+      <c r="H349" s="9"/>
     </row>
     <row r="350" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B350" s="10"/>
-      <c r="H350" s="10"/>
+      <c r="B350" s="9"/>
+      <c r="H350" s="9"/>
     </row>
     <row r="351" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B351" s="10"/>
-      <c r="H351" s="10"/>
+      <c r="B351" s="9"/>
+      <c r="H351" s="9"/>
     </row>
     <row r="352" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B352" s="10"/>
-      <c r="H352" s="10"/>
+      <c r="B352" s="9"/>
+      <c r="H352" s="9"/>
     </row>
     <row r="353" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B353" s="10"/>
-      <c r="H353" s="10"/>
+      <c r="B353" s="9"/>
+      <c r="H353" s="9"/>
     </row>
     <row r="354" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B354" s="10"/>
-      <c r="H354" s="10"/>
+      <c r="B354" s="9"/>
+      <c r="H354" s="9"/>
     </row>
     <row r="355" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B355" s="10"/>
-      <c r="H355" s="10"/>
+      <c r="B355" s="9"/>
+      <c r="H355" s="9"/>
     </row>
     <row r="356" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B356" s="10"/>
-      <c r="H356" s="10"/>
+      <c r="B356" s="9"/>
+      <c r="H356" s="9"/>
     </row>
     <row r="357" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B357" s="10"/>
-      <c r="H357" s="10"/>
+      <c r="B357" s="9"/>
+      <c r="H357" s="9"/>
     </row>
     <row r="358" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B358" s="10"/>
-      <c r="H358" s="10"/>
+      <c r="B358" s="9"/>
+      <c r="H358" s="9"/>
     </row>
     <row r="359" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B359" s="10"/>
-      <c r="H359" s="10"/>
+      <c r="B359" s="9"/>
+      <c r="H359" s="9"/>
     </row>
     <row r="360" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B360" s="10"/>
-      <c r="H360" s="10"/>
+      <c r="B360" s="9"/>
+      <c r="H360" s="9"/>
     </row>
     <row r="361" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B361" s="10"/>
-      <c r="H361" s="10"/>
+      <c r="B361" s="9"/>
+      <c r="H361" s="9"/>
     </row>
     <row r="362" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B362" s="10"/>
-      <c r="H362" s="10"/>
+      <c r="B362" s="9"/>
+      <c r="H362" s="9"/>
     </row>
     <row r="363" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B363" s="10"/>
-      <c r="H363" s="10"/>
+      <c r="B363" s="9"/>
+      <c r="H363" s="9"/>
     </row>
     <row r="364" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B364" s="10"/>
-      <c r="H364" s="10"/>
+      <c r="B364" s="9"/>
+      <c r="H364" s="9"/>
     </row>
     <row r="365" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B365" s="10"/>
-      <c r="H365" s="10"/>
+      <c r="B365" s="9"/>
+      <c r="H365" s="9"/>
     </row>
     <row r="366" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B366" s="10"/>
-      <c r="H366" s="10"/>
+      <c r="B366" s="9"/>
+      <c r="H366" s="9"/>
     </row>
     <row r="367" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B367" s="10"/>
-      <c r="H367" s="10"/>
+      <c r="B367" s="9"/>
+      <c r="H367" s="9"/>
     </row>
     <row r="368" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B368" s="10"/>
-      <c r="H368" s="10"/>
+      <c r="B368" s="9"/>
+      <c r="H368" s="9"/>
     </row>
     <row r="369" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B369" s="10"/>
-      <c r="H369" s="10"/>
+      <c r="B369" s="9"/>
+      <c r="H369" s="9"/>
     </row>
     <row r="370" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B370" s="10"/>
-      <c r="H370" s="10"/>
+      <c r="B370" s="9"/>
+      <c r="H370" s="9"/>
     </row>
     <row r="371" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B371" s="10"/>
-      <c r="H371" s="10"/>
+      <c r="B371" s="9"/>
+      <c r="H371" s="9"/>
     </row>
     <row r="372" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B372" s="10"/>
-      <c r="H372" s="10"/>
+      <c r="B372" s="9"/>
+      <c r="H372" s="9"/>
     </row>
     <row r="373" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B373" s="10"/>
-      <c r="H373" s="10"/>
+      <c r="B373" s="9"/>
+      <c r="H373" s="9"/>
     </row>
     <row r="374" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B374" s="10"/>
-      <c r="H374" s="10"/>
+      <c r="B374" s="9"/>
+      <c r="H374" s="9"/>
     </row>
     <row r="375" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B375" s="10"/>
-      <c r="H375" s="10"/>
+      <c r="B375" s="9"/>
+      <c r="H375" s="9"/>
     </row>
     <row r="376" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B376" s="10"/>
-      <c r="H376" s="10"/>
+      <c r="B376" s="9"/>
+      <c r="H376" s="9"/>
     </row>
     <row r="377" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B377" s="10"/>
-      <c r="H377" s="10"/>
+      <c r="B377" s="9"/>
+      <c r="H377" s="9"/>
     </row>
     <row r="378" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B378" s="10"/>
-      <c r="H378" s="10"/>
+      <c r="B378" s="9"/>
+      <c r="H378" s="9"/>
     </row>
     <row r="379" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B379" s="10"/>
-      <c r="H379" s="10"/>
+      <c r="B379" s="9"/>
+      <c r="H379" s="9"/>
     </row>
     <row r="380" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B380" s="10"/>
-      <c r="H380" s="10"/>
+      <c r="B380" s="9"/>
+      <c r="H380" s="9"/>
     </row>
     <row r="381" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B381" s="10"/>
-      <c r="H381" s="10"/>
+      <c r="B381" s="9"/>
+      <c r="H381" s="9"/>
     </row>
     <row r="382" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B382" s="10"/>
-      <c r="H382" s="10"/>
+      <c r="B382" s="9"/>
+      <c r="H382" s="9"/>
     </row>
     <row r="383" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B383" s="10"/>
-      <c r="H383" s="10"/>
+      <c r="B383" s="9"/>
+      <c r="H383" s="9"/>
     </row>
     <row r="384" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B384" s="10"/>
-      <c r="H384" s="10"/>
+      <c r="B384" s="9"/>
+      <c r="H384" s="9"/>
     </row>
     <row r="385" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B385" s="10"/>
-      <c r="H385" s="10"/>
+      <c r="B385" s="9"/>
+      <c r="H385" s="9"/>
     </row>
     <row r="386" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B386" s="10"/>
-      <c r="H386" s="10"/>
+      <c r="B386" s="9"/>
+      <c r="H386" s="9"/>
     </row>
     <row r="387" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B387" s="10"/>
-      <c r="H387" s="10"/>
+      <c r="B387" s="9"/>
+      <c r="H387" s="9"/>
     </row>
     <row r="388" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B388" s="10"/>
-      <c r="H388" s="10"/>
+      <c r="B388" s="9"/>
+      <c r="H388" s="9"/>
     </row>
     <row r="389" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B389" s="10"/>
-      <c r="H389" s="10"/>
+      <c r="B389" s="9"/>
+      <c r="H389" s="9"/>
     </row>
     <row r="390" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B390" s="10"/>
-      <c r="H390" s="10"/>
+      <c r="B390" s="9"/>
+      <c r="H390" s="9"/>
     </row>
     <row r="391" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B391" s="10"/>
-      <c r="H391" s="10"/>
+      <c r="B391" s="9"/>
+      <c r="H391" s="9"/>
     </row>
     <row r="392" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B392" s="10"/>
-      <c r="H392" s="10"/>
+      <c r="B392" s="9"/>
+      <c r="H392" s="9"/>
     </row>
     <row r="393" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B393" s="10"/>
-      <c r="H393" s="10"/>
+      <c r="B393" s="9"/>
+      <c r="H393" s="9"/>
     </row>
     <row r="394" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B394" s="10"/>
-      <c r="H394" s="10"/>
+      <c r="B394" s="9"/>
+      <c r="H394" s="9"/>
     </row>
     <row r="395" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B395" s="10"/>
-      <c r="H395" s="10"/>
+      <c r="B395" s="9"/>
+      <c r="H395" s="9"/>
     </row>
     <row r="396" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B396" s="10"/>
-      <c r="H396" s="10"/>
+      <c r="B396" s="9"/>
+      <c r="H396" s="9"/>
     </row>
     <row r="397" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B397" s="10"/>
-      <c r="H397" s="10"/>
+      <c r="B397" s="9"/>
+      <c r="H397" s="9"/>
     </row>
     <row r="398" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B398" s="10"/>
-      <c r="H398" s="10"/>
+      <c r="B398" s="9"/>
+      <c r="H398" s="9"/>
     </row>
     <row r="399" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B399" s="10"/>
-      <c r="H399" s="10"/>
+      <c r="B399" s="9"/>
+      <c r="H399" s="9"/>
     </row>
     <row r="400" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B400" s="10"/>
-      <c r="H400" s="10"/>
+      <c r="B400" s="9"/>
+      <c r="H400" s="9"/>
     </row>
     <row r="401" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B401" s="10"/>
-      <c r="H401" s="10"/>
+      <c r="B401" s="9"/>
+      <c r="H401" s="9"/>
     </row>
     <row r="402" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B402" s="10"/>
-      <c r="H402" s="10"/>
+      <c r="B402" s="9"/>
+      <c r="H402" s="9"/>
     </row>
     <row r="403" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B403" s="10"/>
-      <c r="H403" s="10"/>
+      <c r="B403" s="9"/>
+      <c r="H403" s="9"/>
     </row>
     <row r="404" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B404" s="10"/>
-      <c r="H404" s="10"/>
+      <c r="B404" s="9"/>
+      <c r="H404" s="9"/>
     </row>
     <row r="405" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B405" s="10"/>
-      <c r="H405" s="10"/>
+      <c r="B405" s="9"/>
+      <c r="H405" s="9"/>
     </row>
     <row r="406" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B406" s="10"/>
-      <c r="H406" s="10"/>
+      <c r="B406" s="9"/>
+      <c r="H406" s="9"/>
     </row>
     <row r="407" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B407" s="10"/>
-      <c r="H407" s="10"/>
+      <c r="B407" s="9"/>
+      <c r="H407" s="9"/>
     </row>
     <row r="408" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B408" s="10"/>
-      <c r="H408" s="10"/>
+      <c r="B408" s="9"/>
+      <c r="H408" s="9"/>
     </row>
     <row r="409" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B409" s="10"/>
-      <c r="H409" s="10"/>
+      <c r="B409" s="9"/>
+      <c r="H409" s="9"/>
     </row>
     <row r="410" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B410" s="10"/>
-      <c r="H410" s="10"/>
+      <c r="B410" s="9"/>
+      <c r="H410" s="9"/>
     </row>
     <row r="411" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B411" s="10"/>
-      <c r="H411" s="10"/>
+      <c r="B411" s="9"/>
+      <c r="H411" s="9"/>
     </row>
     <row r="412" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B412" s="10"/>
-      <c r="H412" s="10"/>
+      <c r="B412" s="9"/>
+      <c r="H412" s="9"/>
     </row>
     <row r="413" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B413" s="10"/>
-      <c r="H413" s="10"/>
+      <c r="B413" s="9"/>
+      <c r="H413" s="9"/>
     </row>
     <row r="414" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B414" s="10"/>
-      <c r="H414" s="10"/>
+      <c r="B414" s="9"/>
+      <c r="H414" s="9"/>
     </row>
     <row r="415" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B415" s="10"/>
-      <c r="H415" s="10"/>
+      <c r="B415" s="9"/>
+      <c r="H415" s="9"/>
     </row>
     <row r="416" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B416" s="10"/>
-      <c r="H416" s="10"/>
+      <c r="B416" s="9"/>
+      <c r="H416" s="9"/>
     </row>
     <row r="417" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B417" s="10"/>
-      <c r="H417" s="10"/>
+      <c r="B417" s="9"/>
+      <c r="H417" s="9"/>
     </row>
     <row r="418" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B418" s="10"/>
-      <c r="H418" s="10"/>
+      <c r="B418" s="9"/>
+      <c r="H418" s="9"/>
     </row>
     <row r="419" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B419" s="10"/>
-      <c r="H419" s="10"/>
+      <c r="B419" s="9"/>
+      <c r="H419" s="9"/>
     </row>
     <row r="420" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B420" s="10"/>
-      <c r="H420" s="10"/>
+      <c r="B420" s="9"/>
+      <c r="H420" s="9"/>
     </row>
     <row r="421" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B421" s="10"/>
-      <c r="H421" s="10"/>
+      <c r="B421" s="9"/>
+      <c r="H421" s="9"/>
     </row>
     <row r="422" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B422" s="10"/>
-      <c r="H422" s="10"/>
+      <c r="B422" s="9"/>
+      <c r="H422" s="9"/>
     </row>
     <row r="423" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B423" s="10"/>
-      <c r="H423" s="10"/>
+      <c r="B423" s="9"/>
+      <c r="H423" s="9"/>
     </row>
     <row r="424" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B424" s="10"/>
-      <c r="H424" s="10"/>
+      <c r="B424" s="9"/>
+      <c r="H424" s="9"/>
     </row>
     <row r="425" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B425" s="10"/>
-      <c r="H425" s="10"/>
+      <c r="B425" s="9"/>
+      <c r="H425" s="9"/>
     </row>
     <row r="426" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B426" s="10"/>
-      <c r="H426" s="10"/>
+      <c r="B426" s="9"/>
+      <c r="H426" s="9"/>
     </row>
     <row r="427" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B427" s="10"/>
-      <c r="H427" s="10"/>
+      <c r="B427" s="9"/>
+      <c r="H427" s="9"/>
     </row>
     <row r="428" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B428" s="10"/>
-      <c r="H428" s="10"/>
+      <c r="B428" s="9"/>
+      <c r="H428" s="9"/>
     </row>
     <row r="429" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B429" s="10"/>
-      <c r="H429" s="10"/>
+      <c r="B429" s="9"/>
+      <c r="H429" s="9"/>
     </row>
     <row r="430" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B430" s="10"/>
-      <c r="H430" s="10"/>
+      <c r="B430" s="9"/>
+      <c r="H430" s="9"/>
     </row>
     <row r="431" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B431" s="10"/>
-      <c r="H431" s="10"/>
+      <c r="B431" s="9"/>
+      <c r="H431" s="9"/>
     </row>
     <row r="432" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B432" s="10"/>
-      <c r="H432" s="10"/>
+      <c r="B432" s="9"/>
+      <c r="H432" s="9"/>
     </row>
     <row r="433" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B433" s="10"/>
-      <c r="H433" s="10"/>
+      <c r="B433" s="9"/>
+      <c r="H433" s="9"/>
     </row>
     <row r="434" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B434" s="10"/>
-      <c r="H434" s="10"/>
+      <c r="B434" s="9"/>
+      <c r="H434" s="9"/>
     </row>
     <row r="435" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B435" s="10"/>
-      <c r="H435" s="10"/>
+      <c r="B435" s="9"/>
+      <c r="H435" s="9"/>
     </row>
     <row r="436" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B436" s="10"/>
-      <c r="H436" s="10"/>
+      <c r="B436" s="9"/>
+      <c r="H436" s="9"/>
     </row>
     <row r="437" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B437" s="10"/>
-      <c r="H437" s="10"/>
+      <c r="B437" s="9"/>
+      <c r="H437" s="9"/>
     </row>
     <row r="438" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B438" s="10"/>
-      <c r="H438" s="10"/>
+      <c r="B438" s="9"/>
+      <c r="H438" s="9"/>
     </row>
     <row r="439" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B439" s="10"/>
-      <c r="H439" s="10"/>
+      <c r="B439" s="9"/>
+      <c r="H439" s="9"/>
     </row>
     <row r="440" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B440" s="10"/>
-      <c r="H440" s="10"/>
+      <c r="B440" s="9"/>
+      <c r="H440" s="9"/>
     </row>
     <row r="441" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B441" s="10"/>
-      <c r="H441" s="10"/>
+      <c r="B441" s="9"/>
+      <c r="H441" s="9"/>
     </row>
     <row r="442" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B442" s="10"/>
-      <c r="H442" s="10"/>
+      <c r="B442" s="9"/>
+      <c r="H442" s="9"/>
     </row>
     <row r="443" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B443" s="10"/>
-      <c r="H443" s="10"/>
+      <c r="B443" s="9"/>
+      <c r="H443" s="9"/>
     </row>
     <row r="444" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B444" s="10"/>
-      <c r="H444" s="10"/>
+      <c r="B444" s="9"/>
+      <c r="H444" s="9"/>
     </row>
     <row r="445" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B445" s="10"/>
-      <c r="H445" s="10"/>
+      <c r="B445" s="9"/>
+      <c r="H445" s="9"/>
     </row>
     <row r="446" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B446" s="10"/>
-      <c r="H446" s="10"/>
+      <c r="B446" s="9"/>
+      <c r="H446" s="9"/>
     </row>
     <row r="447" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B447" s="10"/>
-      <c r="H447" s="10"/>
+      <c r="B447" s="9"/>
+      <c r="H447" s="9"/>
     </row>
     <row r="448" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B448" s="10"/>
-      <c r="H448" s="10"/>
+      <c r="B448" s="9"/>
+      <c r="H448" s="9"/>
     </row>
     <row r="449" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B449" s="10"/>
-      <c r="H449" s="10"/>
+      <c r="B449" s="9"/>
+      <c r="H449" s="9"/>
     </row>
     <row r="450" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B450" s="10"/>
-      <c r="H450" s="10"/>
+      <c r="B450" s="9"/>
+      <c r="H450" s="9"/>
     </row>
     <row r="451" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B451" s="10"/>
-      <c r="H451" s="10"/>
+      <c r="B451" s="9"/>
+      <c r="H451" s="9"/>
     </row>
     <row r="452" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B452" s="10"/>
-      <c r="H452" s="10"/>
+      <c r="B452" s="9"/>
+      <c r="H452" s="9"/>
     </row>
     <row r="453" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B453" s="10"/>
-      <c r="H453" s="10"/>
+      <c r="B453" s="9"/>
+      <c r="H453" s="9"/>
     </row>
     <row r="454" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B454" s="10"/>
-      <c r="H454" s="10"/>
+      <c r="B454" s="9"/>
+      <c r="H454" s="9"/>
     </row>
     <row r="455" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B455" s="10"/>
-      <c r="H455" s="10"/>
+      <c r="B455" s="9"/>
+      <c r="H455" s="9"/>
     </row>
     <row r="456" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B456" s="10"/>
-      <c r="H456" s="10"/>
+      <c r="B456" s="9"/>
+      <c r="H456" s="9"/>
     </row>
     <row r="457" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B457" s="10"/>
-      <c r="H457" s="10"/>
+      <c r="B457" s="9"/>
+      <c r="H457" s="9"/>
     </row>
     <row r="458" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B458" s="10"/>
-      <c r="H458" s="10"/>
+      <c r="B458" s="9"/>
+      <c r="H458" s="9"/>
     </row>
     <row r="459" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B459" s="10"/>
-      <c r="H459" s="10"/>
+      <c r="B459" s="9"/>
+      <c r="H459" s="9"/>
     </row>
     <row r="460" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B460" s="10"/>
-      <c r="H460" s="10"/>
+      <c r="B460" s="9"/>
+      <c r="H460" s="9"/>
     </row>
     <row r="461" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B461" s="10"/>
-      <c r="H461" s="10"/>
+      <c r="B461" s="9"/>
+      <c r="H461" s="9"/>
     </row>
     <row r="462" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B462" s="10"/>
-      <c r="H462" s="10"/>
+      <c r="B462" s="9"/>
+      <c r="H462" s="9"/>
     </row>
     <row r="463" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B463" s="10"/>
-      <c r="H463" s="10"/>
+      <c r="B463" s="9"/>
+      <c r="H463" s="9"/>
     </row>
     <row r="464" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B464" s="10"/>
-      <c r="H464" s="10"/>
+      <c r="B464" s="9"/>
+      <c r="H464" s="9"/>
     </row>
     <row r="465" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B465" s="10"/>
-      <c r="H465" s="10"/>
+      <c r="B465" s="9"/>
+      <c r="H465" s="9"/>
     </row>
     <row r="466" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B466" s="10"/>
-      <c r="H466" s="10"/>
+      <c r="B466" s="9"/>
+      <c r="H466" s="9"/>
     </row>
     <row r="467" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B467" s="10"/>
-      <c r="H467" s="10"/>
+      <c r="B467" s="9"/>
+      <c r="H467" s="9"/>
     </row>
     <row r="468" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B468" s="10"/>
-      <c r="H468" s="10"/>
+      <c r="B468" s="9"/>
+      <c r="H468" s="9"/>
     </row>
     <row r="469" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B469" s="10"/>
-      <c r="H469" s="10"/>
+      <c r="B469" s="9"/>
+      <c r="H469" s="9"/>
     </row>
     <row r="470" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B470" s="10"/>
-      <c r="H470" s="10"/>
+      <c r="B470" s="9"/>
+      <c r="H470" s="9"/>
     </row>
     <row r="471" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B471" s="10"/>
-      <c r="H471" s="10"/>
+      <c r="B471" s="9"/>
+      <c r="H471" s="9"/>
     </row>
     <row r="472" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B472" s="10"/>
-      <c r="H472" s="10"/>
+      <c r="B472" s="9"/>
+      <c r="H472" s="9"/>
     </row>
     <row r="473" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B473" s="10"/>
-      <c r="H473" s="10"/>
+      <c r="B473" s="9"/>
+      <c r="H473" s="9"/>
     </row>
     <row r="474" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B474" s="10"/>
-      <c r="H474" s="10"/>
+      <c r="B474" s="9"/>
+      <c r="H474" s="9"/>
     </row>
     <row r="475" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B475" s="10"/>
-      <c r="H475" s="10"/>
+      <c r="B475" s="9"/>
+      <c r="H475" s="9"/>
     </row>
     <row r="476" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B476" s="10"/>
-      <c r="H476" s="10"/>
+      <c r="B476" s="9"/>
+      <c r="H476" s="9"/>
     </row>
     <row r="477" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B477" s="10"/>
-      <c r="H477" s="10"/>
+      <c r="B477" s="9"/>
+      <c r="H477" s="9"/>
     </row>
     <row r="478" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B478" s="10"/>
-      <c r="H478" s="10"/>
+      <c r="B478" s="9"/>
+      <c r="H478" s="9"/>
     </row>
     <row r="479" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B479" s="10"/>
-      <c r="H479" s="10"/>
+      <c r="B479" s="9"/>
+      <c r="H479" s="9"/>
     </row>
     <row r="480" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B480" s="10"/>
-      <c r="H480" s="10"/>
+      <c r="B480" s="9"/>
+      <c r="H480" s="9"/>
     </row>
     <row r="481" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B481" s="10"/>
-      <c r="H481" s="10"/>
+      <c r="B481" s="9"/>
+      <c r="H481" s="9"/>
     </row>
     <row r="482" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B482" s="10"/>
-      <c r="H482" s="10"/>
+      <c r="B482" s="9"/>
+      <c r="H482" s="9"/>
     </row>
     <row r="483" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B483" s="10"/>
-      <c r="H483" s="10"/>
+      <c r="B483" s="9"/>
+      <c r="H483" s="9"/>
     </row>
     <row r="484" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B484" s="10"/>
-      <c r="H484" s="10"/>
+      <c r="B484" s="9"/>
+      <c r="H484" s="9"/>
     </row>
     <row r="485" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B485" s="10"/>
-      <c r="H485" s="10"/>
+      <c r="B485" s="9"/>
+      <c r="H485" s="9"/>
     </row>
     <row r="486" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B486" s="10"/>
-      <c r="H486" s="10"/>
+      <c r="B486" s="9"/>
+      <c r="H486" s="9"/>
     </row>
     <row r="487" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B487" s="10"/>
-      <c r="H487" s="10"/>
+      <c r="B487" s="9"/>
+      <c r="H487" s="9"/>
     </row>
     <row r="488" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B488" s="10"/>
-      <c r="H488" s="10"/>
+      <c r="B488" s="9"/>
+      <c r="H488" s="9"/>
     </row>
     <row r="489" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B489" s="10"/>
-      <c r="H489" s="10"/>
+      <c r="B489" s="9"/>
+      <c r="H489" s="9"/>
     </row>
     <row r="490" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B490" s="10"/>
-      <c r="H490" s="10"/>
+      <c r="B490" s="9"/>
+      <c r="H490" s="9"/>
     </row>
     <row r="491" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B491" s="10"/>
-      <c r="H491" s="10"/>
+      <c r="B491" s="9"/>
+      <c r="H491" s="9"/>
     </row>
     <row r="492" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B492" s="10"/>
-      <c r="H492" s="10"/>
+      <c r="B492" s="9"/>
+      <c r="H492" s="9"/>
     </row>
     <row r="493" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B493" s="10"/>
-      <c r="H493" s="10"/>
+      <c r="B493" s="9"/>
+      <c r="H493" s="9"/>
     </row>
     <row r="494" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B494" s="10"/>
-      <c r="H494" s="10"/>
+      <c r="B494" s="9"/>
+      <c r="H494" s="9"/>
     </row>
     <row r="495" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B495" s="10"/>
-      <c r="H495" s="10"/>
+      <c r="B495" s="9"/>
+      <c r="H495" s="9"/>
     </row>
     <row r="496" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B496" s="10"/>
-      <c r="H496" s="10"/>
+      <c r="B496" s="9"/>
+      <c r="H496" s="9"/>
     </row>
     <row r="497" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B497" s="10"/>
-      <c r="H497" s="10"/>
+      <c r="B497" s="9"/>
+      <c r="H497" s="9"/>
     </row>
     <row r="498" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B498" s="10"/>
-      <c r="H498" s="10"/>
+      <c r="B498" s="9"/>
+      <c r="H498" s="9"/>
     </row>
     <row r="499" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B499" s="10"/>
-      <c r="H499" s="10"/>
+      <c r="B499" s="9"/>
+      <c r="H499" s="9"/>
     </row>
     <row r="500" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B500" s="10"/>
-      <c r="H500" s="10"/>
+      <c r="B500" s="9"/>
+      <c r="H500" s="9"/>
     </row>
     <row r="501" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B501" s="10"/>
-      <c r="H501" s="10"/>
+      <c r="B501" s="9"/>
+      <c r="H501" s="9"/>
     </row>
     <row r="502" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B502" s="10"/>
-      <c r="H502" s="10"/>
+      <c r="B502" s="9"/>
+      <c r="H502" s="9"/>
     </row>
     <row r="503" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B503" s="10"/>
-      <c r="H503" s="10"/>
+      <c r="B503" s="9"/>
+      <c r="H503" s="9"/>
     </row>
     <row r="504" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B504" s="10"/>
-      <c r="H504" s="10"/>
+      <c r="B504" s="9"/>
+      <c r="H504" s="9"/>
     </row>
     <row r="505" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B505" s="10"/>
-      <c r="H505" s="10"/>
+      <c r="B505" s="9"/>
+      <c r="H505" s="9"/>
     </row>
     <row r="506" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B506" s="10"/>
-      <c r="H506" s="10"/>
+      <c r="B506" s="9"/>
+      <c r="H506" s="9"/>
     </row>
     <row r="507" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B507" s="10"/>
-      <c r="H507" s="10"/>
+      <c r="B507" s="9"/>
+      <c r="H507" s="9"/>
     </row>
     <row r="508" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B508" s="10"/>
-      <c r="H508" s="10"/>
+      <c r="B508" s="9"/>
+      <c r="H508" s="9"/>
     </row>
     <row r="509" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B509" s="10"/>
-      <c r="H509" s="10"/>
+      <c r="B509" s="9"/>
+      <c r="H509" s="9"/>
     </row>
     <row r="510" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B510" s="10"/>
-      <c r="H510" s="10"/>
+      <c r="B510" s="9"/>
+      <c r="H510" s="9"/>
     </row>
     <row r="511" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B511" s="10"/>
-      <c r="H511" s="10"/>
+      <c r="B511" s="9"/>
+      <c r="H511" s="9"/>
     </row>
     <row r="512" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B512" s="10"/>
-      <c r="H512" s="10"/>
+      <c r="B512" s="9"/>
+      <c r="H512" s="9"/>
     </row>
     <row r="513" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B513" s="10"/>
-      <c r="H513" s="10"/>
+      <c r="B513" s="9"/>
+      <c r="H513" s="9"/>
     </row>
     <row r="514" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B514" s="10"/>
-      <c r="H514" s="10"/>
+      <c r="B514" s="9"/>
+      <c r="H514" s="9"/>
     </row>
     <row r="515" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B515" s="10"/>
-      <c r="H515" s="10"/>
+      <c r="B515" s="9"/>
+      <c r="H515" s="9"/>
     </row>
     <row r="516" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B516" s="10"/>
-      <c r="H516" s="10"/>
+      <c r="B516" s="9"/>
+      <c r="H516" s="9"/>
     </row>
     <row r="517" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B517" s="10"/>
-      <c r="H517" s="10"/>
+      <c r="B517" s="9"/>
+      <c r="H517" s="9"/>
     </row>
     <row r="518" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B518" s="10"/>
-      <c r="H518" s="10"/>
+      <c r="B518" s="9"/>
+      <c r="H518" s="9"/>
     </row>
     <row r="519" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B519" s="10"/>
-      <c r="H519" s="10"/>
+      <c r="B519" s="9"/>
+      <c r="H519" s="9"/>
     </row>
     <row r="520" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B520" s="10"/>
-      <c r="H520" s="10"/>
+      <c r="B520" s="9"/>
+      <c r="H520" s="9"/>
     </row>
     <row r="521" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B521" s="10"/>
-      <c r="H521" s="10"/>
+      <c r="B521" s="9"/>
+      <c r="H521" s="9"/>
     </row>
     <row r="522" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B522" s="10"/>
-      <c r="H522" s="10"/>
+      <c r="B522" s="9"/>
+      <c r="H522" s="9"/>
     </row>
     <row r="523" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B523" s="10"/>
-      <c r="H523" s="10"/>
+      <c r="B523" s="9"/>
+      <c r="H523" s="9"/>
     </row>
     <row r="524" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B524" s="10"/>
-      <c r="H524" s="10"/>
+      <c r="B524" s="9"/>
+      <c r="H524" s="9"/>
     </row>
     <row r="525" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B525" s="10"/>
-      <c r="H525" s="10"/>
+      <c r="B525" s="9"/>
+      <c r="H525" s="9"/>
     </row>
     <row r="526" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B526" s="10"/>
-      <c r="H526" s="10"/>
+      <c r="B526" s="9"/>
+      <c r="H526" s="9"/>
     </row>
     <row r="527" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B527" s="10"/>
-      <c r="H527" s="10"/>
+      <c r="B527" s="9"/>
+      <c r="H527" s="9"/>
     </row>
     <row r="528" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B528" s="10"/>
-      <c r="H528" s="10"/>
+      <c r="B528" s="9"/>
+      <c r="H528" s="9"/>
     </row>
     <row r="529" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B529" s="10"/>
-      <c r="H529" s="10"/>
+      <c r="B529" s="9"/>
+      <c r="H529" s="9"/>
     </row>
     <row r="530" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B530" s="10"/>
-      <c r="H530" s="10"/>
+      <c r="B530" s="9"/>
+      <c r="H530" s="9"/>
     </row>
     <row r="531" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B531" s="10"/>
-      <c r="H531" s="10"/>
+      <c r="B531" s="9"/>
+      <c r="H531" s="9"/>
     </row>
     <row r="532" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B532" s="10"/>
-      <c r="H532" s="10"/>
+      <c r="B532" s="9"/>
+      <c r="H532" s="9"/>
     </row>
     <row r="533" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B533" s="10"/>
-      <c r="H533" s="10"/>
+      <c r="B533" s="9"/>
+      <c r="H533" s="9"/>
     </row>
     <row r="534" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B534" s="10"/>
-      <c r="H534" s="10"/>
+      <c r="B534" s="9"/>
+      <c r="H534" s="9"/>
     </row>
     <row r="535" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B535" s="10"/>
-      <c r="H535" s="10"/>
+      <c r="B535" s="9"/>
+      <c r="H535" s="9"/>
     </row>
     <row r="536" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B536" s="10"/>
-      <c r="H536" s="10"/>
+      <c r="B536" s="9"/>
+      <c r="H536" s="9"/>
     </row>
     <row r="537" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B537" s="10"/>
-      <c r="H537" s="10"/>
+      <c r="B537" s="9"/>
+      <c r="H537" s="9"/>
     </row>
     <row r="538" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B538" s="10"/>
-      <c r="H538" s="10"/>
+      <c r="B538" s="9"/>
+      <c r="H538" s="9"/>
     </row>
     <row r="539" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B539" s="10"/>
-      <c r="H539" s="10"/>
+      <c r="B539" s="9"/>
+      <c r="H539" s="9"/>
     </row>
     <row r="540" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B540" s="10"/>
-      <c r="H540" s="10"/>
+      <c r="B540" s="9"/>
+      <c r="H540" s="9"/>
     </row>
     <row r="541" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B541" s="10"/>
-      <c r="H541" s="10"/>
+      <c r="B541" s="9"/>
+      <c r="H541" s="9"/>
     </row>
     <row r="542" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B542" s="10"/>
-      <c r="H542" s="10"/>
+      <c r="B542" s="9"/>
+      <c r="H542" s="9"/>
     </row>
     <row r="543" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B543" s="10"/>
-      <c r="H543" s="10"/>
+      <c r="B543" s="9"/>
+      <c r="H543" s="9"/>
     </row>
     <row r="544" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B544" s="10"/>
-      <c r="H544" s="10"/>
+      <c r="B544" s="9"/>
+      <c r="H544" s="9"/>
     </row>
     <row r="545" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B545" s="10"/>
-      <c r="H545" s="10"/>
+      <c r="B545" s="9"/>
+      <c r="H545" s="9"/>
     </row>
     <row r="546" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B546" s="10"/>
-      <c r="H546" s="10"/>
+      <c r="B546" s="9"/>
+      <c r="H546" s="9"/>
     </row>
     <row r="547" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B547" s="10"/>
-      <c r="H547" s="10"/>
+      <c r="B547" s="9"/>
+      <c r="H547" s="9"/>
     </row>
     <row r="548" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B548" s="10"/>
-      <c r="H548" s="10"/>
+      <c r="B548" s="9"/>
+      <c r="H548" s="9"/>
     </row>
     <row r="549" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B549" s="10"/>
-      <c r="H549" s="10"/>
+      <c r="B549" s="9"/>
+      <c r="H549" s="9"/>
     </row>
     <row r="550" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B550" s="10"/>
-      <c r="H550" s="10"/>
+      <c r="B550" s="9"/>
+      <c r="H550" s="9"/>
     </row>
     <row r="551" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B551" s="10"/>
-      <c r="H551" s="10"/>
+      <c r="B551" s="9"/>
+      <c r="H551" s="9"/>
     </row>
     <row r="552" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B552" s="10"/>
-      <c r="H552" s="10"/>
+      <c r="B552" s="9"/>
+      <c r="H552" s="9"/>
     </row>
     <row r="553" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B553" s="10"/>
-      <c r="H553" s="10"/>
+      <c r="B553" s="9"/>
+      <c r="H553" s="9"/>
     </row>
     <row r="554" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B554" s="10"/>
-      <c r="H554" s="10"/>
+      <c r="B554" s="9"/>
+      <c r="H554" s="9"/>
     </row>
     <row r="555" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B555" s="10"/>
-      <c r="H555" s="10"/>
+      <c r="B555" s="9"/>
+      <c r="H555" s="9"/>
     </row>
     <row r="556" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B556" s="10"/>
-      <c r="H556" s="10"/>
+      <c r="B556" s="9"/>
+      <c r="H556" s="9"/>
     </row>
     <row r="557" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B557" s="10"/>
-      <c r="H557" s="10"/>
+      <c r="B557" s="9"/>
+      <c r="H557" s="9"/>
     </row>
     <row r="558" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B558" s="10"/>
-      <c r="H558" s="10"/>
+      <c r="B558" s="9"/>
+      <c r="H558" s="9"/>
     </row>
     <row r="559" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B559" s="10"/>
-      <c r="H559" s="10"/>
+      <c r="B559" s="9"/>
+      <c r="H559" s="9"/>
     </row>
     <row r="560" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B560" s="10"/>
-      <c r="H560" s="10"/>
+      <c r="B560" s="9"/>
+      <c r="H560" s="9"/>
     </row>
     <row r="561" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B561" s="10"/>
-      <c r="H561" s="10"/>
+      <c r="B561" s="9"/>
+      <c r="H561" s="9"/>
     </row>
     <row r="562" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B562" s="10"/>
-      <c r="H562" s="10"/>
+      <c r="B562" s="9"/>
+      <c r="H562" s="9"/>
     </row>
     <row r="563" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B563" s="10"/>
-      <c r="H563" s="10"/>
+      <c r="B563" s="9"/>
+      <c r="H563" s="9"/>
     </row>
     <row r="564" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B564" s="10"/>
-      <c r="H564" s="10"/>
+      <c r="B564" s="9"/>
+      <c r="H564" s="9"/>
     </row>
     <row r="565" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B565" s="10"/>
-      <c r="H565" s="10"/>
+      <c r="B565" s="9"/>
+      <c r="H565" s="9"/>
     </row>
     <row r="566" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B566" s="10"/>
-      <c r="H566" s="10"/>
+      <c r="B566" s="9"/>
+      <c r="H566" s="9"/>
     </row>
     <row r="567" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B567" s="10"/>
-      <c r="H567" s="10"/>
+      <c r="B567" s="9"/>
+      <c r="H567" s="9"/>
     </row>
     <row r="568" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B568" s="10"/>
-      <c r="H568" s="10"/>
+      <c r="B568" s="9"/>
+      <c r="H568" s="9"/>
     </row>
     <row r="569" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B569" s="10"/>
-      <c r="H569" s="10"/>
+      <c r="B569" s="9"/>
+      <c r="H569" s="9"/>
     </row>
     <row r="570" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B570" s="10"/>
-      <c r="H570" s="10"/>
+      <c r="B570" s="9"/>
+      <c r="H570" s="9"/>
     </row>
     <row r="571" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B571" s="10"/>
-      <c r="H571" s="10"/>
+      <c r="B571" s="9"/>
+      <c r="H571" s="9"/>
     </row>
     <row r="572" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B572" s="10"/>
-      <c r="H572" s="10"/>
+      <c r="B572" s="9"/>
+      <c r="H572" s="9"/>
     </row>
     <row r="573" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B573" s="10"/>
-      <c r="H573" s="10"/>
+      <c r="B573" s="9"/>
+      <c r="H573" s="9"/>
     </row>
     <row r="574" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B574" s="10"/>
-      <c r="H574" s="10"/>
+      <c r="B574" s="9"/>
+      <c r="H574" s="9"/>
     </row>
     <row r="575" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B575" s="10"/>
-      <c r="H575" s="10"/>
+      <c r="B575" s="9"/>
+      <c r="H575" s="9"/>
     </row>
     <row r="576" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B576" s="10"/>
-      <c r="H576" s="10"/>
+      <c r="B576" s="9"/>
+      <c r="H576" s="9"/>
     </row>
     <row r="577" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B577" s="10"/>
-      <c r="H577" s="10"/>
+      <c r="B577" s="9"/>
+      <c r="H577" s="9"/>
     </row>
     <row r="578" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B578" s="10"/>
-      <c r="H578" s="10"/>
+      <c r="B578" s="9"/>
+      <c r="H578" s="9"/>
     </row>
     <row r="579" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B579" s="10"/>
-      <c r="H579" s="10"/>
+      <c r="B579" s="9"/>
+      <c r="H579" s="9"/>
     </row>
     <row r="580" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B580" s="10"/>
-      <c r="H580" s="10"/>
+      <c r="B580" s="9"/>
+      <c r="H580" s="9"/>
     </row>
     <row r="581" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B581" s="10"/>
-      <c r="H581" s="10"/>
+      <c r="B581" s="9"/>
+      <c r="H581" s="9"/>
     </row>
     <row r="582" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B582" s="10"/>
-      <c r="H582" s="10"/>
+      <c r="B582" s="9"/>
+      <c r="H582" s="9"/>
     </row>
     <row r="583" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B583" s="10"/>
-      <c r="H583" s="10"/>
+      <c r="B583" s="9"/>
+      <c r="H583" s="9"/>
     </row>
     <row r="584" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B584" s="10"/>
-      <c r="H584" s="10"/>
+      <c r="B584" s="9"/>
+      <c r="H584" s="9"/>
     </row>
     <row r="585" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B585" s="10"/>
-      <c r="H585" s="10"/>
+      <c r="B585" s="9"/>
+      <c r="H585" s="9"/>
     </row>
     <row r="586" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B586" s="10"/>
-      <c r="H586" s="10"/>
+      <c r="B586" s="9"/>
+      <c r="H586" s="9"/>
     </row>
     <row r="587" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B587" s="10"/>
-      <c r="H587" s="10"/>
+      <c r="B587" s="9"/>
+      <c r="H587" s="9"/>
     </row>
     <row r="588" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B588" s="10"/>
-      <c r="H588" s="10"/>
+      <c r="B588" s="9"/>
+      <c r="H588" s="9"/>
     </row>
     <row r="589" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B589" s="10"/>
-      <c r="H589" s="10"/>
+      <c r="B589" s="9"/>
+      <c r="H589" s="9"/>
     </row>
     <row r="590" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B590" s="10"/>
-      <c r="H590" s="10"/>
+      <c r="B590" s="9"/>
+      <c r="H590" s="9"/>
     </row>
     <row r="591" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B591" s="10"/>
-      <c r="H591" s="10"/>
+      <c r="B591" s="9"/>
+      <c r="H591" s="9"/>
     </row>
     <row r="592" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B592" s="10"/>
-      <c r="H592" s="10"/>
+      <c r="B592" s="9"/>
+      <c r="H592" s="9"/>
     </row>
     <row r="593" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B593" s="10"/>
-      <c r="H593" s="10"/>
+      <c r="B593" s="9"/>
+      <c r="H593" s="9"/>
     </row>
     <row r="594" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B594" s="10"/>
-      <c r="H594" s="10"/>
+      <c r="B594" s="9"/>
+      <c r="H594" s="9"/>
     </row>
     <row r="595" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B595" s="10"/>
-      <c r="H595" s="10"/>
+      <c r="B595" s="9"/>
+      <c r="H595" s="9"/>
     </row>
     <row r="596" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B596" s="10"/>
-      <c r="H596" s="10"/>
+      <c r="B596" s="9"/>
+      <c r="H596" s="9"/>
     </row>
     <row r="597" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B597" s="10"/>
-      <c r="H597" s="10"/>
+      <c r="B597" s="9"/>
+      <c r="H597" s="9"/>
     </row>
     <row r="598" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B598" s="10"/>
-      <c r="H598" s="10"/>
+      <c r="B598" s="9"/>
+      <c r="H598" s="9"/>
     </row>
     <row r="599" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B599" s="10"/>
-      <c r="H599" s="10"/>
+      <c r="B599" s="9"/>
+      <c r="H599" s="9"/>
     </row>
     <row r="600" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B600" s="10"/>
-      <c r="H600" s="10"/>
+      <c r="B600" s="9"/>
+      <c r="H600" s="9"/>
     </row>
     <row r="601" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B601" s="10"/>
-      <c r="H601" s="10"/>
+      <c r="B601" s="9"/>
+      <c r="H601" s="9"/>
     </row>
     <row r="602" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B602" s="10"/>
-      <c r="H602" s="10"/>
+      <c r="B602" s="9"/>
+      <c r="H602" s="9"/>
     </row>
     <row r="603" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B603" s="10"/>
-      <c r="H603" s="10"/>
+      <c r="B603" s="9"/>
+      <c r="H603" s="9"/>
     </row>
     <row r="604" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B604" s="10"/>
-      <c r="H604" s="10"/>
+      <c r="B604" s="9"/>
+      <c r="H604" s="9"/>
     </row>
     <row r="605" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B605" s="10"/>
-      <c r="H605" s="10"/>
+      <c r="B605" s="9"/>
+      <c r="H605" s="9"/>
     </row>
     <row r="606" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B606" s="10"/>
-      <c r="H606" s="10"/>
+      <c r="B606" s="9"/>
+      <c r="H606" s="9"/>
     </row>
     <row r="607" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B607" s="10"/>
-      <c r="H607" s="10"/>
+      <c r="B607" s="9"/>
+      <c r="H607" s="9"/>
     </row>
     <row r="608" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B608" s="10"/>
-      <c r="H608" s="10"/>
+      <c r="B608" s="9"/>
+      <c r="H608" s="9"/>
     </row>
     <row r="609" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B609" s="10"/>
-      <c r="H609" s="10"/>
+      <c r="B609" s="9"/>
+      <c r="H609" s="9"/>
     </row>
     <row r="610" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B610" s="10"/>
-      <c r="H610" s="10"/>
+      <c r="B610" s="9"/>
+      <c r="H610" s="9"/>
     </row>
     <row r="611" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B611" s="10"/>
-      <c r="H611" s="10"/>
+      <c r="B611" s="9"/>
+      <c r="H611" s="9"/>
     </row>
     <row r="612" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B612" s="10"/>
-      <c r="H612" s="10"/>
+      <c r="B612" s="9"/>
+      <c r="H612" s="9"/>
     </row>
     <row r="613" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B613" s="10"/>
-      <c r="H613" s="10"/>
+      <c r="B613" s="9"/>
+      <c r="H613" s="9"/>
     </row>
     <row r="614" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B614" s="10"/>
-      <c r="H614" s="10"/>
+      <c r="B614" s="9"/>
+      <c r="H614" s="9"/>
     </row>
     <row r="615" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B615" s="10"/>
-      <c r="H615" s="10"/>
+      <c r="B615" s="9"/>
+      <c r="H615" s="9"/>
     </row>
     <row r="616" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B616" s="10"/>
-      <c r="H616" s="10"/>
+      <c r="B616" s="9"/>
+      <c r="H616" s="9"/>
     </row>
     <row r="617" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B617" s="10"/>
-      <c r="H617" s="10"/>
+      <c r="B617" s="9"/>
+      <c r="H617" s="9"/>
     </row>
     <row r="618" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B618" s="10"/>
-      <c r="H618" s="10"/>
+      <c r="B618" s="9"/>
+      <c r="H618" s="9"/>
     </row>
     <row r="619" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B619" s="10"/>
-      <c r="H619" s="10"/>
+      <c r="B619" s="9"/>
+      <c r="H619" s="9"/>
     </row>
     <row r="620" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B620" s="10"/>
-      <c r="H620" s="10"/>
+      <c r="B620" s="9"/>
+      <c r="H620" s="9"/>
     </row>
     <row r="621" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B621" s="10"/>
-      <c r="H621" s="10"/>
+      <c r="B621" s="9"/>
+      <c r="H621" s="9"/>
     </row>
     <row r="622" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B622" s="10"/>
-      <c r="H622" s="10"/>
+      <c r="B622" s="9"/>
+      <c r="H622" s="9"/>
     </row>
     <row r="623" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B623" s="10"/>
-      <c r="H623" s="10"/>
+      <c r="B623" s="9"/>
+      <c r="H623" s="9"/>
     </row>
     <row r="624" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B624" s="10"/>
-      <c r="H624" s="10"/>
+      <c r="B624" s="9"/>
+      <c r="H624" s="9"/>
     </row>
     <row r="625" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B625" s="10"/>
-      <c r="H625" s="10"/>
+      <c r="B625" s="9"/>
+      <c r="H625" s="9"/>
     </row>
     <row r="626" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B626" s="10"/>
-      <c r="H626" s="10"/>
+      <c r="B626" s="9"/>
+      <c r="H626" s="9"/>
     </row>
     <row r="627" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B627" s="10"/>
-      <c r="H627" s="10"/>
+      <c r="B627" s="9"/>
+      <c r="H627" s="9"/>
     </row>
     <row r="628" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B628" s="10"/>
-      <c r="H628" s="10"/>
+      <c r="B628" s="9"/>
+      <c r="H628" s="9"/>
     </row>
     <row r="629" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B629" s="10"/>
-      <c r="H629" s="10"/>
+      <c r="B629" s="9"/>
+      <c r="H629" s="9"/>
     </row>
     <row r="630" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B630" s="10"/>
-      <c r="H630" s="10"/>
+      <c r="B630" s="9"/>
+      <c r="H630" s="9"/>
     </row>
     <row r="631" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B631" s="10"/>
-      <c r="H631" s="10"/>
+      <c r="B631" s="9"/>
+      <c r="H631" s="9"/>
     </row>
     <row r="632" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B632" s="10"/>
-      <c r="H632" s="10"/>
+      <c r="B632" s="9"/>
+      <c r="H632" s="9"/>
     </row>
     <row r="633" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B633" s="10"/>
-      <c r="H633" s="10"/>
+      <c r="B633" s="9"/>
+      <c r="H633" s="9"/>
     </row>
     <row r="634" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B634" s="10"/>
-      <c r="H634" s="10"/>
+      <c r="B634" s="9"/>
+      <c r="H634" s="9"/>
     </row>
     <row r="635" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B635" s="10"/>
-      <c r="H635" s="10"/>
+      <c r="B635" s="9"/>
+      <c r="H635" s="9"/>
     </row>
     <row r="636" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B636" s="10"/>
-      <c r="H636" s="10"/>
+      <c r="B636" s="9"/>
+      <c r="H636" s="9"/>
     </row>
     <row r="637" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B637" s="10"/>
-      <c r="H637" s="10"/>
+      <c r="B637" s="9"/>
+      <c r="H637" s="9"/>
     </row>
     <row r="638" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B638" s="10"/>
-      <c r="H638" s="10"/>
+      <c r="B638" s="9"/>
+      <c r="H638" s="9"/>
     </row>
     <row r="639" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B639" s="10"/>
-      <c r="H639" s="10"/>
+      <c r="B639" s="9"/>
+      <c r="H639" s="9"/>
     </row>
     <row r="640" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B640" s="10"/>
-      <c r="H640" s="10"/>
+      <c r="B640" s="9"/>
+      <c r="H640" s="9"/>
     </row>
     <row r="641" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B641" s="10"/>
-      <c r="H641" s="10"/>
+      <c r="B641" s="9"/>
+      <c r="H641" s="9"/>
     </row>
     <row r="642" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B642" s="10"/>
-      <c r="H642" s="10"/>
+      <c r="B642" s="9"/>
+      <c r="H642" s="9"/>
     </row>
     <row r="643" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B643" s="10"/>
-      <c r="H643" s="10"/>
+      <c r="B643" s="9"/>
+      <c r="H643" s="9"/>
     </row>
     <row r="644" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B644" s="10"/>
-      <c r="H644" s="10"/>
+      <c r="B644" s="9"/>
+      <c r="H644" s="9"/>
     </row>
     <row r="645" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B645" s="10"/>
-      <c r="H645" s="10"/>
+      <c r="B645" s="9"/>
+      <c r="H645" s="9"/>
     </row>
     <row r="646" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B646" s="10"/>
-      <c r="H646" s="10"/>
+      <c r="B646" s="9"/>
+      <c r="H646" s="9"/>
     </row>
     <row r="647" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B647" s="10"/>
-      <c r="H647" s="10"/>
+      <c r="B647" s="9"/>
+      <c r="H647" s="9"/>
     </row>
     <row r="648" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B648" s="10"/>
-      <c r="H648" s="10"/>
+      <c r="B648" s="9"/>
+      <c r="H648" s="9"/>
     </row>
     <row r="649" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B649" s="10"/>
-      <c r="H649" s="10"/>
+      <c r="B649" s="9"/>
+      <c r="H649" s="9"/>
     </row>
     <row r="650" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B650" s="10"/>
-      <c r="H650" s="10"/>
+      <c r="B650" s="9"/>
+      <c r="H650" s="9"/>
     </row>
     <row r="651" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B651" s="10"/>
-      <c r="H651" s="10"/>
+      <c r="B651" s="9"/>
+      <c r="H651" s="9"/>
     </row>
     <row r="652" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B652" s="10"/>
-      <c r="H652" s="10"/>
+      <c r="B652" s="9"/>
+      <c r="H652" s="9"/>
     </row>
     <row r="653" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B653" s="10"/>
-      <c r="H653" s="10"/>
+      <c r="B653" s="9"/>
+      <c r="H653" s="9"/>
     </row>
     <row r="654" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B654" s="10"/>
-      <c r="H654" s="10"/>
+      <c r="B654" s="9"/>
+      <c r="H654" s="9"/>
     </row>
     <row r="655" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B655" s="10"/>
-      <c r="H655" s="10"/>
+      <c r="B655" s="9"/>
+      <c r="H655" s="9"/>
     </row>
     <row r="656" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B656" s="10"/>
-      <c r="H656" s="10"/>
+      <c r="B656" s="9"/>
+      <c r="H656" s="9"/>
     </row>
     <row r="657" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B657" s="10"/>
-      <c r="H657" s="10"/>
+      <c r="B657" s="9"/>
+      <c r="H657" s="9"/>
     </row>
     <row r="658" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B658" s="10"/>
-      <c r="H658" s="10"/>
+      <c r="B658" s="9"/>
+      <c r="H658" s="9"/>
     </row>
     <row r="659" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B659" s="10"/>
-      <c r="H659" s="10"/>
+      <c r="B659" s="9"/>
+      <c r="H659" s="9"/>
     </row>
     <row r="660" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B660" s="10"/>
-      <c r="H660" s="10"/>
+      <c r="B660" s="9"/>
+      <c r="H660" s="9"/>
     </row>
     <row r="661" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B661" s="10"/>
-      <c r="H661" s="10"/>
+      <c r="B661" s="9"/>
+      <c r="H661" s="9"/>
     </row>
     <row r="662" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B662" s="10"/>
-      <c r="H662" s="10"/>
+      <c r="B662" s="9"/>
+      <c r="H662" s="9"/>
     </row>
     <row r="663" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B663" s="10"/>
-      <c r="H663" s="10"/>
+      <c r="B663" s="9"/>
+      <c r="H663" s="9"/>
     </row>
     <row r="664" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B664" s="10"/>
-      <c r="H664" s="10"/>
+      <c r="B664" s="9"/>
+      <c r="H664" s="9"/>
     </row>
     <row r="665" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B665" s="10"/>
-      <c r="H665" s="10"/>
+      <c r="B665" s="9"/>
+      <c r="H665" s="9"/>
     </row>
     <row r="666" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B666" s="10"/>
-      <c r="H666" s="10"/>
+      <c r="B666" s="9"/>
+      <c r="H666" s="9"/>
     </row>
     <row r="667" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B667" s="10"/>
-      <c r="H667" s="10"/>
+      <c r="B667" s="9"/>
+      <c r="H667" s="9"/>
     </row>
     <row r="668" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B668" s="10"/>
-      <c r="H668" s="10"/>
+      <c r="B668" s="9"/>
+      <c r="H668" s="9"/>
     </row>
     <row r="669" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B669" s="10"/>
-      <c r="H669" s="10"/>
+      <c r="B669" s="9"/>
+      <c r="H669" s="9"/>
     </row>
     <row r="670" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B670" s="10"/>
-      <c r="H670" s="10"/>
+      <c r="B670" s="9"/>
+      <c r="H670" s="9"/>
     </row>
     <row r="671" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B671" s="10"/>
-      <c r="H671" s="10"/>
+      <c r="B671" s="9"/>
+      <c r="H671" s="9"/>
     </row>
     <row r="672" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B672" s="10"/>
-      <c r="H672" s="10"/>
+      <c r="B672" s="9"/>
+      <c r="H672" s="9"/>
     </row>
     <row r="673" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B673" s="10"/>
-      <c r="H673" s="10"/>
+      <c r="B673" s="9"/>
+      <c r="H673" s="9"/>
     </row>
     <row r="674" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B674" s="10"/>
-      <c r="H674" s="10"/>
+      <c r="B674" s="9"/>
+      <c r="H674" s="9"/>
     </row>
     <row r="675" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B675" s="10"/>
-      <c r="H675" s="10"/>
+      <c r="B675" s="9"/>
+      <c r="H675" s="9"/>
     </row>
     <row r="676" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B676" s="10"/>
-      <c r="H676" s="10"/>
+      <c r="B676" s="9"/>
+      <c r="H676" s="9"/>
     </row>
     <row r="677" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B677" s="10"/>
-      <c r="H677" s="10"/>
+      <c r="B677" s="9"/>
+      <c r="H677" s="9"/>
     </row>
     <row r="678" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B678" s="10"/>
-      <c r="H678" s="10"/>
+      <c r="B678" s="9"/>
+      <c r="H678" s="9"/>
     </row>
     <row r="679" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B679" s="10"/>
-      <c r="H679" s="10"/>
+      <c r="B679" s="9"/>
+      <c r="H679" s="9"/>
     </row>
     <row r="680" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B680" s="10"/>
-      <c r="H680" s="10"/>
+      <c r="B680" s="9"/>
+      <c r="H680" s="9"/>
     </row>
     <row r="681" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B681" s="10"/>
-      <c r="H681" s="10"/>
+      <c r="B681" s="9"/>
+      <c r="H681" s="9"/>
     </row>
     <row r="682" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B682" s="10"/>
-      <c r="H682" s="10"/>
+      <c r="B682" s="9"/>
+      <c r="H682" s="9"/>
     </row>
     <row r="683" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B683" s="10"/>
-      <c r="H683" s="10"/>
+      <c r="B683" s="9"/>
+      <c r="H683" s="9"/>
     </row>
     <row r="684" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B684" s="10"/>
-      <c r="H684" s="10"/>
+      <c r="B684" s="9"/>
+      <c r="H684" s="9"/>
     </row>
     <row r="685" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B685" s="10"/>
-      <c r="H685" s="10"/>
+      <c r="B685" s="9"/>
+      <c r="H685" s="9"/>
     </row>
     <row r="686" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B686" s="10"/>
-      <c r="H686" s="10"/>
+      <c r="B686" s="9"/>
+      <c r="H686" s="9"/>
     </row>
     <row r="687" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B687" s="10"/>
-      <c r="H687" s="10"/>
+      <c r="B687" s="9"/>
+      <c r="H687" s="9"/>
     </row>
     <row r="688" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B688" s="10"/>
-      <c r="H688" s="10"/>
+      <c r="B688" s="9"/>
+      <c r="H688" s="9"/>
     </row>
     <row r="689" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B689" s="10"/>
-      <c r="H689" s="10"/>
+      <c r="B689" s="9"/>
+      <c r="H689" s="9"/>
     </row>
     <row r="690" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B690" s="10"/>
-      <c r="H690" s="10"/>
+      <c r="B690" s="9"/>
+      <c r="H690" s="9"/>
     </row>
     <row r="691" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B691" s="10"/>
-      <c r="H691" s="10"/>
+      <c r="B691" s="9"/>
+      <c r="H691" s="9"/>
     </row>
     <row r="692" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B692" s="10"/>
-      <c r="H692" s="10"/>
+      <c r="B692" s="9"/>
+      <c r="H692" s="9"/>
     </row>
     <row r="693" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B693" s="10"/>
-      <c r="H693" s="10"/>
+      <c r="B693" s="9"/>
+      <c r="H693" s="9"/>
     </row>
     <row r="694" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B694" s="10"/>
-      <c r="H694" s="10"/>
+      <c r="B694" s="9"/>
+      <c r="H694" s="9"/>
     </row>
     <row r="695" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B695" s="10"/>
-      <c r="H695" s="10"/>
+      <c r="B695" s="9"/>
+      <c r="H695" s="9"/>
     </row>
     <row r="696" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B696" s="10"/>
-      <c r="H696" s="10"/>
+      <c r="B696" s="9"/>
+      <c r="H696" s="9"/>
     </row>
     <row r="697" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B697" s="10"/>
-      <c r="H697" s="10"/>
+      <c r="B697" s="9"/>
+      <c r="H697" s="9"/>
     </row>
     <row r="698" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B698" s="10"/>
-      <c r="H698" s="10"/>
+      <c r="B698" s="9"/>
+      <c r="H698" s="9"/>
     </row>
     <row r="699" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B699" s="10"/>
-      <c r="H699" s="10"/>
+      <c r="B699" s="9"/>
+      <c r="H699" s="9"/>
     </row>
     <row r="700" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B700" s="10"/>
-      <c r="H700" s="10"/>
+      <c r="B700" s="9"/>
+      <c r="H700" s="9"/>
     </row>
     <row r="701" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B701" s="10"/>
-      <c r="H701" s="10"/>
+      <c r="B701" s="9"/>
+      <c r="H701" s="9"/>
     </row>
     <row r="702" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B702" s="10"/>
-      <c r="H702" s="10"/>
+      <c r="B702" s="9"/>
+      <c r="H702" s="9"/>
     </row>
     <row r="703" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B703" s="10"/>
-      <c r="H703" s="10"/>
+      <c r="B703" s="9"/>
+      <c r="H703" s="9"/>
     </row>
     <row r="704" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B704" s="10"/>
-      <c r="H704" s="10"/>
+      <c r="B704" s="9"/>
+      <c r="H704" s="9"/>
     </row>
     <row r="705" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B705" s="10"/>
-      <c r="H705" s="10"/>
+      <c r="B705" s="9"/>
+      <c r="H705" s="9"/>
     </row>
     <row r="706" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B706" s="10"/>
-      <c r="H706" s="10"/>
+      <c r="B706" s="9"/>
+      <c r="H706" s="9"/>
     </row>
     <row r="707" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B707" s="10"/>
-      <c r="H707" s="10"/>
+      <c r="B707" s="9"/>
+      <c r="H707" s="9"/>
     </row>
     <row r="708" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B708" s="10"/>
-      <c r="H708" s="10"/>
+      <c r="B708" s="9"/>
+      <c r="H708" s="9"/>
     </row>
     <row r="709" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B709" s="10"/>
-      <c r="H709" s="10"/>
+      <c r="B709" s="9"/>
+      <c r="H709" s="9"/>
     </row>
     <row r="710" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B710" s="10"/>
-      <c r="H710" s="10"/>
+      <c r="B710" s="9"/>
+      <c r="H710" s="9"/>
     </row>
     <row r="711" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B711" s="10"/>
-      <c r="H711" s="10"/>
+      <c r="B711" s="9"/>
+      <c r="H711" s="9"/>
     </row>
     <row r="712" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B712" s="10"/>
-      <c r="H712" s="10"/>
+      <c r="B712" s="9"/>
+      <c r="H712" s="9"/>
     </row>
     <row r="713" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B713" s="10"/>
-      <c r="H713" s="10"/>
+      <c r="B713" s="9"/>
+      <c r="H713" s="9"/>
     </row>
     <row r="714" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B714" s="10"/>
-      <c r="H714" s="10"/>
+      <c r="B714" s="9"/>
+      <c r="H714" s="9"/>
     </row>
     <row r="715" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B715" s="10"/>
-      <c r="H715" s="10"/>
+      <c r="B715" s="9"/>
+      <c r="H715" s="9"/>
     </row>
     <row r="716" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B716" s="10"/>
-      <c r="H716" s="10"/>
+      <c r="B716" s="9"/>
+      <c r="H716" s="9"/>
     </row>
     <row r="717" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B717" s="10"/>
-      <c r="H717" s="10"/>
+      <c r="B717" s="9"/>
+      <c r="H717" s="9"/>
     </row>
     <row r="718" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B718" s="10"/>
-      <c r="H718" s="10"/>
+      <c r="B718" s="9"/>
+      <c r="H718" s="9"/>
     </row>
     <row r="719" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B719" s="10"/>
-      <c r="H719" s="10"/>
+      <c r="B719" s="9"/>
+      <c r="H719" s="9"/>
     </row>
     <row r="720" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B720" s="10"/>
-      <c r="H720" s="10"/>
+      <c r="B720" s="9"/>
+      <c r="H720" s="9"/>
     </row>
     <row r="721" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B721" s="10"/>
-      <c r="H721" s="10"/>
+      <c r="B721" s="9"/>
+      <c r="H721" s="9"/>
     </row>
     <row r="722" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B722" s="10"/>
-      <c r="H722" s="10"/>
+      <c r="B722" s="9"/>
+      <c r="H722" s="9"/>
     </row>
     <row r="723" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B723" s="10"/>
-      <c r="H723" s="10"/>
+      <c r="B723" s="9"/>
+      <c r="H723" s="9"/>
     </row>
     <row r="724" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B724" s="10"/>
-      <c r="H724" s="10"/>
+      <c r="B724" s="9"/>
+      <c r="H724" s="9"/>
     </row>
     <row r="725" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B725" s="10"/>
-      <c r="H725" s="10"/>
+      <c r="B725" s="9"/>
+      <c r="H725" s="9"/>
     </row>
     <row r="726" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B726" s="10"/>
-      <c r="H726" s="10"/>
+      <c r="B726" s="9"/>
+      <c r="H726" s="9"/>
     </row>
     <row r="727" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B727" s="10"/>
-      <c r="H727" s="10"/>
+      <c r="B727" s="9"/>
+      <c r="H727" s="9"/>
     </row>
     <row r="728" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B728" s="10"/>
-      <c r="H728" s="10"/>
+      <c r="B728" s="9"/>
+      <c r="H728" s="9"/>
     </row>
     <row r="729" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B729" s="10"/>
-      <c r="H729" s="10"/>
+      <c r="B729" s="9"/>
+      <c r="H729" s="9"/>
     </row>
     <row r="730" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B730" s="10"/>
-      <c r="H730" s="10"/>
+      <c r="B730" s="9"/>
+      <c r="H730" s="9"/>
     </row>
     <row r="731" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B731" s="10"/>
-      <c r="H731" s="10"/>
+      <c r="B731" s="9"/>
+      <c r="H731" s="9"/>
     </row>
     <row r="732" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B732" s="10"/>
-      <c r="H732" s="10"/>
+      <c r="B732" s="9"/>
+      <c r="H732" s="9"/>
     </row>
     <row r="733" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B733" s="10"/>
-      <c r="H733" s="10"/>
+      <c r="B733" s="9"/>
+      <c r="H733" s="9"/>
     </row>
     <row r="734" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B734" s="10"/>
-      <c r="H734" s="10"/>
+      <c r="B734" s="9"/>
+      <c r="H734" s="9"/>
     </row>
     <row r="735" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B735" s="10"/>
-      <c r="H735" s="10"/>
+      <c r="B735" s="9"/>
+      <c r="H735" s="9"/>
     </row>
     <row r="736" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B736" s="10"/>
-      <c r="H736" s="10"/>
+      <c r="B736" s="9"/>
+      <c r="H736" s="9"/>
     </row>
     <row r="737" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B737" s="10"/>
-      <c r="H737" s="10"/>
+      <c r="B737" s="9"/>
+      <c r="H737" s="9"/>
     </row>
     <row r="738" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B738" s="10"/>
-      <c r="H738" s="10"/>
+      <c r="B738" s="9"/>
+      <c r="H738" s="9"/>
     </row>
     <row r="739" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B739" s="10"/>
-      <c r="H739" s="10"/>
+      <c r="B739" s="9"/>
+      <c r="H739" s="9"/>
     </row>
     <row r="740" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B740" s="10"/>
-      <c r="H740" s="10"/>
+      <c r="B740" s="9"/>
+      <c r="H740" s="9"/>
     </row>
     <row r="741" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B741" s="10"/>
-      <c r="H741" s="10"/>
+      <c r="B741" s="9"/>
+      <c r="H741" s="9"/>
     </row>
     <row r="742" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B742" s="10"/>
-      <c r="H742" s="10"/>
+      <c r="B742" s="9"/>
+      <c r="H742" s="9"/>
     </row>
     <row r="743" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B743" s="10"/>
-      <c r="H743" s="10"/>
+      <c r="B743" s="9"/>
+      <c r="H743" s="9"/>
     </row>
     <row r="744" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B744" s="10"/>
-      <c r="H744" s="10"/>
+      <c r="B744" s="9"/>
+      <c r="H744" s="9"/>
     </row>
     <row r="745" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B745" s="10"/>
-      <c r="H745" s="10"/>
+      <c r="B745" s="9"/>
+      <c r="H745" s="9"/>
     </row>
     <row r="746" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B746" s="10"/>
-      <c r="H746" s="10"/>
+      <c r="B746" s="9"/>
+      <c r="H746" s="9"/>
     </row>
     <row r="747" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B747" s="10"/>
-      <c r="H747" s="10"/>
+      <c r="B747" s="9"/>
+      <c r="H747" s="9"/>
     </row>
     <row r="748" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B748" s="10"/>
-      <c r="H748" s="10"/>
+      <c r="B748" s="9"/>
+      <c r="H748" s="9"/>
     </row>
     <row r="749" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B749" s="10"/>
-      <c r="H749" s="10"/>
+      <c r="B749" s="9"/>
+      <c r="H749" s="9"/>
     </row>
     <row r="750" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B750" s="10"/>
-      <c r="H750" s="10"/>
+      <c r="B750" s="9"/>
+      <c r="H750" s="9"/>
     </row>
     <row r="751" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B751" s="10"/>
-      <c r="H751" s="10"/>
+      <c r="B751" s="9"/>
+      <c r="H751" s="9"/>
     </row>
     <row r="752" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B752" s="10"/>
-      <c r="H752" s="10"/>
+      <c r="B752" s="9"/>
+      <c r="H752" s="9"/>
     </row>
     <row r="753" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B753" s="10"/>
-      <c r="H753" s="10"/>
+      <c r="B753" s="9"/>
+      <c r="H753" s="9"/>
     </row>
     <row r="754" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B754" s="10"/>
-      <c r="H754" s="10"/>
+      <c r="B754" s="9"/>
+      <c r="H754" s="9"/>
     </row>
     <row r="755" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B755" s="10"/>
-      <c r="H755" s="10"/>
+      <c r="B755" s="9"/>
+      <c r="H755" s="9"/>
     </row>
     <row r="756" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B756" s="10"/>
-      <c r="H756" s="10"/>
+      <c r="B756" s="9"/>
+      <c r="H756" s="9"/>
     </row>
     <row r="757" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B757" s="10"/>
-      <c r="H757" s="10"/>
+      <c r="B757" s="9"/>
+      <c r="H757" s="9"/>
     </row>
     <row r="758" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B758" s="10"/>
-      <c r="H758" s="10"/>
+      <c r="B758" s="9"/>
+      <c r="H758" s="9"/>
     </row>
     <row r="759" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B759" s="10"/>
-      <c r="H759" s="10"/>
+      <c r="B759" s="9"/>
+      <c r="H759" s="9"/>
     </row>
     <row r="760" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B760" s="10"/>
-      <c r="H760" s="10"/>
+      <c r="B760" s="9"/>
+      <c r="H760" s="9"/>
     </row>
     <row r="761" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B761" s="10"/>
-      <c r="H761" s="10"/>
+      <c r="B761" s="9"/>
+      <c r="H761" s="9"/>
     </row>
     <row r="762" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B762" s="10"/>
-      <c r="H762" s="10"/>
+      <c r="B762" s="9"/>
+      <c r="H762" s="9"/>
     </row>
     <row r="763" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B763" s="10"/>
-      <c r="H763" s="10"/>
+      <c r="B763" s="9"/>
+      <c r="H763" s="9"/>
     </row>
     <row r="764" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B764" s="10"/>
-      <c r="H764" s="10"/>
+      <c r="B764" s="9"/>
+      <c r="H764" s="9"/>
     </row>
     <row r="765" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B765" s="10"/>
-      <c r="H765" s="10"/>
+      <c r="B765" s="9"/>
+      <c r="H765" s="9"/>
     </row>
     <row r="766" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B766" s="10"/>
-      <c r="H766" s="10"/>
+      <c r="B766" s="9"/>
+      <c r="H766" s="9"/>
     </row>
     <row r="767" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B767" s="10"/>
-      <c r="H767" s="10"/>
+      <c r="B767" s="9"/>
+      <c r="H767" s="9"/>
     </row>
     <row r="768" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B768" s="10"/>
-      <c r="H768" s="10"/>
+      <c r="B768" s="9"/>
+      <c r="H768" s="9"/>
     </row>
     <row r="769" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B769" s="10"/>
-      <c r="H769" s="10"/>
+      <c r="B769" s="9"/>
+      <c r="H769" s="9"/>
     </row>
     <row r="770" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B770" s="10"/>
-      <c r="H770" s="10"/>
+      <c r="B770" s="9"/>
+      <c r="H770" s="9"/>
     </row>
     <row r="771" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B771" s="10"/>
-      <c r="H771" s="10"/>
+      <c r="B771" s="9"/>
+      <c r="H771" s="9"/>
     </row>
     <row r="772" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B772" s="10"/>
-      <c r="H772" s="10"/>
+      <c r="B772" s="9"/>
+      <c r="H772" s="9"/>
     </row>
     <row r="773" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B773" s="10"/>
-      <c r="H773" s="10"/>
+      <c r="B773" s="9"/>
+      <c r="H773" s="9"/>
     </row>
     <row r="774" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B774" s="10"/>
-      <c r="H774" s="10"/>
+      <c r="B774" s="9"/>
+      <c r="H774" s="9"/>
     </row>
     <row r="775" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B775" s="10"/>
-      <c r="H775" s="10"/>
+      <c r="B775" s="9"/>
+      <c r="H775" s="9"/>
     </row>
     <row r="776" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B776" s="10"/>
-      <c r="H776" s="10"/>
+      <c r="B776" s="9"/>
+      <c r="H776" s="9"/>
     </row>
     <row r="777" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B777" s="10"/>
-      <c r="H777" s="10"/>
+      <c r="B777" s="9"/>
+      <c r="H777" s="9"/>
     </row>
     <row r="778" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B778" s="10"/>
-      <c r="H778" s="10"/>
+      <c r="B778" s="9"/>
+      <c r="H778" s="9"/>
     </row>
     <row r="779" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B779" s="10"/>
-      <c r="H779" s="10"/>
+      <c r="B779" s="9"/>
+      <c r="H779" s="9"/>
     </row>
     <row r="780" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B780" s="10"/>
-      <c r="H780" s="10"/>
+      <c r="B780" s="9"/>
+      <c r="H780" s="9"/>
     </row>
     <row r="781" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B781" s="10"/>
-      <c r="H781" s="10"/>
+      <c r="B781" s="9"/>
+      <c r="H781" s="9"/>
     </row>
     <row r="782" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B782" s="10"/>
-      <c r="H782" s="10"/>
+      <c r="B782" s="9"/>
+      <c r="H782" s="9"/>
     </row>
     <row r="783" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B783" s="10"/>
-      <c r="H783" s="10"/>
+      <c r="B783" s="9"/>
+      <c r="H783" s="9"/>
     </row>
     <row r="784" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B784" s="10"/>
-      <c r="H784" s="10"/>
+      <c r="B784" s="9"/>
+      <c r="H784" s="9"/>
     </row>
     <row r="785" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B785" s="10"/>
-      <c r="H785" s="10"/>
+      <c r="B785" s="9"/>
+      <c r="H785" s="9"/>
     </row>
     <row r="786" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B786" s="10"/>
-      <c r="H786" s="10"/>
+      <c r="B786" s="9"/>
+      <c r="H786" s="9"/>
     </row>
     <row r="787" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B787" s="10"/>
-      <c r="H787" s="10"/>
+      <c r="B787" s="9"/>
+      <c r="H787" s="9"/>
     </row>
     <row r="788" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B788" s="10"/>
-      <c r="H788" s="10"/>
+      <c r="B788" s="9"/>
+      <c r="H788" s="9"/>
     </row>
     <row r="789" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B789" s="10"/>
-      <c r="H789" s="10"/>
+      <c r="B789" s="9"/>
+      <c r="H789" s="9"/>
     </row>
     <row r="790" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B790" s="10"/>
-      <c r="H790" s="10"/>
+      <c r="B790" s="9"/>
+      <c r="H790" s="9"/>
     </row>
     <row r="791" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B791" s="10"/>
-      <c r="H791" s="10"/>
+      <c r="B791" s="9"/>
+      <c r="H791" s="9"/>
     </row>
     <row r="792" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B792" s="10"/>
-      <c r="H792" s="10"/>
+      <c r="B792" s="9"/>
+      <c r="H792" s="9"/>
     </row>
     <row r="793" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B793" s="10"/>
-      <c r="H793" s="10"/>
+      <c r="B793" s="9"/>
+      <c r="H793" s="9"/>
     </row>
     <row r="794" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B794" s="10"/>
-      <c r="H794" s="10"/>
+      <c r="B794" s="9"/>
+      <c r="H794" s="9"/>
     </row>
     <row r="795" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B795" s="10"/>
-      <c r="H795" s="10"/>
+      <c r="B795" s="9"/>
+      <c r="H795" s="9"/>
     </row>
     <row r="796" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B796" s="10"/>
-      <c r="H796" s="10"/>
+      <c r="B796" s="9"/>
+      <c r="H796" s="9"/>
     </row>
     <row r="797" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B797" s="10"/>
-      <c r="H797" s="10"/>
+      <c r="B797" s="9"/>
+      <c r="H797" s="9"/>
     </row>
     <row r="798" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B798" s="10"/>
-      <c r="H798" s="10"/>
+      <c r="B798" s="9"/>
+      <c r="H798" s="9"/>
     </row>
     <row r="799" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B799" s="10"/>
-      <c r="H799" s="10"/>
+      <c r="B799" s="9"/>
+      <c r="H799" s="9"/>
     </row>
     <row r="800" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B800" s="10"/>
-      <c r="H800" s="10"/>
+      <c r="B800" s="9"/>
+      <c r="H800" s="9"/>
     </row>
     <row r="801" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B801" s="10"/>
-      <c r="H801" s="10"/>
+      <c r="B801" s="9"/>
+      <c r="H801" s="9"/>
     </row>
     <row r="802" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B802" s="10"/>
-      <c r="H802" s="10"/>
+      <c r="B802" s="9"/>
+      <c r="H802" s="9"/>
     </row>
     <row r="803" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B803" s="10"/>
-      <c r="H803" s="10"/>
+      <c r="B803" s="9"/>
+      <c r="H803" s="9"/>
     </row>
     <row r="804" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B804" s="10"/>
-      <c r="H804" s="10"/>
+      <c r="B804" s="9"/>
+      <c r="H804" s="9"/>
     </row>
     <row r="805" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B805" s="10"/>
-      <c r="H805" s="10"/>
+      <c r="B805" s="9"/>
+      <c r="H805" s="9"/>
     </row>
     <row r="806" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B806" s="10"/>
-      <c r="H806" s="10"/>
+      <c r="B806" s="9"/>
+      <c r="H806" s="9"/>
     </row>
     <row r="807" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B807" s="10"/>
-      <c r="H807" s="10"/>
+      <c r="B807" s="9"/>
+      <c r="H807" s="9"/>
     </row>
     <row r="808" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B808" s="10"/>
-      <c r="H808" s="10"/>
+      <c r="B808" s="9"/>
+      <c r="H808" s="9"/>
     </row>
     <row r="809" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B809" s="10"/>
-      <c r="H809" s="10"/>
+      <c r="B809" s="9"/>
+      <c r="H809" s="9"/>
     </row>
     <row r="810" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B810" s="10"/>
-      <c r="H810" s="10"/>
+      <c r="B810" s="9"/>
+      <c r="H810" s="9"/>
     </row>
     <row r="811" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B811" s="10"/>
-      <c r="H811" s="10"/>
+      <c r="B811" s="9"/>
+      <c r="H811" s="9"/>
     </row>
     <row r="812" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B812" s="10"/>
-      <c r="H812" s="10"/>
+      <c r="B812" s="9"/>
+      <c r="H812" s="9"/>
     </row>
     <row r="813" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B813" s="10"/>
-      <c r="H813" s="10"/>
+      <c r="B813" s="9"/>
+      <c r="H813" s="9"/>
     </row>
     <row r="814" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B814" s="10"/>
-      <c r="H814" s="10"/>
+      <c r="B814" s="9"/>
+      <c r="H814" s="9"/>
     </row>
     <row r="815" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B815" s="10"/>
-      <c r="H815" s="10"/>
+      <c r="B815" s="9"/>
+      <c r="H815" s="9"/>
     </row>
     <row r="816" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B816" s="10"/>
-      <c r="H816" s="10"/>
+      <c r="B816" s="9"/>
+      <c r="H816" s="9"/>
     </row>
     <row r="817" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B817" s="10"/>
-      <c r="H817" s="10"/>
+      <c r="B817" s="9"/>
+      <c r="H817" s="9"/>
     </row>
     <row r="818" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B818" s="10"/>
-      <c r="H818" s="10"/>
+      <c r="B818" s="9"/>
+      <c r="H818" s="9"/>
     </row>
     <row r="819" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B819" s="10"/>
-      <c r="H819" s="10"/>
+      <c r="B819" s="9"/>
+      <c r="H819" s="9"/>
     </row>
     <row r="820" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B820" s="10"/>
-      <c r="H820" s="10"/>
+      <c r="B820" s="9"/>
+      <c r="H820" s="9"/>
     </row>
     <row r="821" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B821" s="10"/>
-      <c r="H821" s="10"/>
+      <c r="B821" s="9"/>
+      <c r="H821" s="9"/>
     </row>
     <row r="822" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B822" s="10"/>
-      <c r="H822" s="10"/>
+      <c r="B822" s="9"/>
+      <c r="H822" s="9"/>
     </row>
     <row r="823" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B823" s="10"/>
-      <c r="H823" s="10"/>
+      <c r="B823" s="9"/>
+      <c r="H823" s="9"/>
     </row>
     <row r="824" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B824" s="10"/>
-      <c r="H824" s="10"/>
+      <c r="B824" s="9"/>
+      <c r="H824" s="9"/>
     </row>
     <row r="825" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B825" s="10"/>
-      <c r="H825" s="10"/>
+      <c r="B825" s="9"/>
+      <c r="H825" s="9"/>
     </row>
     <row r="826" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B826" s="10"/>
-      <c r="H826" s="10"/>
+      <c r="B826" s="9"/>
+      <c r="H826" s="9"/>
     </row>
     <row r="827" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B827" s="10"/>
-      <c r="H827" s="10"/>
+      <c r="B827" s="9"/>
+      <c r="H827" s="9"/>
     </row>
     <row r="828" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B828" s="10"/>
-      <c r="H828" s="10"/>
+      <c r="B828" s="9"/>
+      <c r="H828" s="9"/>
     </row>
     <row r="829" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B829" s="10"/>
-      <c r="H829" s="10"/>
+      <c r="B829" s="9"/>
+      <c r="H829" s="9"/>
     </row>
     <row r="830" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B830" s="10"/>
-      <c r="H830" s="10"/>
+      <c r="B830" s="9"/>
+      <c r="H830" s="9"/>
     </row>
     <row r="831" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B831" s="10"/>
-      <c r="H831" s="10"/>
+      <c r="B831" s="9"/>
+      <c r="H831" s="9"/>
     </row>
     <row r="832" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B832" s="10"/>
-      <c r="H832" s="10"/>
+      <c r="B832" s="9"/>
+      <c r="H832" s="9"/>
     </row>
     <row r="833" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B833" s="10"/>
-      <c r="H833" s="10"/>
+      <c r="B833" s="9"/>
+      <c r="H833" s="9"/>
     </row>
     <row r="834" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B834" s="10"/>
-      <c r="H834" s="10"/>
+      <c r="B834" s="9"/>
+      <c r="H834" s="9"/>
     </row>
     <row r="835" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B835" s="10"/>
-      <c r="H835" s="10"/>
+      <c r="B835" s="9"/>
+      <c r="H835" s="9"/>
     </row>
     <row r="836" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B836" s="10"/>
-      <c r="H836" s="10"/>
+      <c r="B836" s="9"/>
+      <c r="H836" s="9"/>
     </row>
     <row r="837" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B837" s="10"/>
-      <c r="H837" s="10"/>
+      <c r="B837" s="9"/>
+      <c r="H837" s="9"/>
     </row>
     <row r="838" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B838" s="10"/>
-      <c r="H838" s="10"/>
+      <c r="B838" s="9"/>
+      <c r="H838" s="9"/>
     </row>
     <row r="839" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B839" s="10"/>
-      <c r="H839" s="10"/>
+      <c r="B839" s="9"/>
+      <c r="H839" s="9"/>
     </row>
     <row r="840" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B840" s="10"/>
-      <c r="H840" s="10"/>
+      <c r="B840" s="9"/>
+      <c r="H840" s="9"/>
     </row>
     <row r="841" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B841" s="10"/>
-      <c r="H841" s="10"/>
+      <c r="B841" s="9"/>
+      <c r="H841" s="9"/>
     </row>
     <row r="842" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B842" s="10"/>
-      <c r="H842" s="10"/>
+      <c r="B842" s="9"/>
+      <c r="H842" s="9"/>
     </row>
     <row r="843" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B843" s="10"/>
-      <c r="H843" s="10"/>
+      <c r="B843" s="9"/>
+      <c r="H843" s="9"/>
     </row>
     <row r="844" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B844" s="10"/>
-      <c r="H844" s="10"/>
+      <c r="B844" s="9"/>
+      <c r="H844" s="9"/>
     </row>
     <row r="845" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B845" s="10"/>
-      <c r="H845" s="10"/>
+      <c r="B845" s="9"/>
+      <c r="H845" s="9"/>
     </row>
     <row r="846" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B846" s="10"/>
-      <c r="H846" s="10"/>
+      <c r="B846" s="9"/>
+      <c r="H846" s="9"/>
     </row>
     <row r="847" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B847" s="10"/>
-      <c r="H847" s="10"/>
+      <c r="B847" s="9"/>
+      <c r="H847" s="9"/>
     </row>
     <row r="848" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B848" s="10"/>
-      <c r="H848" s="10"/>
+      <c r="B848" s="9"/>
+      <c r="H848" s="9"/>
     </row>
     <row r="849" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B849" s="10"/>
-      <c r="H849" s="10"/>
+      <c r="B849" s="9"/>
+      <c r="H849" s="9"/>
     </row>
     <row r="850" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B850" s="10"/>
-      <c r="H850" s="10"/>
+      <c r="B850" s="9"/>
+      <c r="H850" s="9"/>
     </row>
     <row r="851" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B851" s="10"/>
-      <c r="H851" s="10"/>
+      <c r="B851" s="9"/>
+      <c r="H851" s="9"/>
     </row>
     <row r="852" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B852" s="10"/>
-      <c r="H852" s="10"/>
+      <c r="B852" s="9"/>
+      <c r="H852" s="9"/>
     </row>
     <row r="853" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B853" s="10"/>
-      <c r="H853" s="10"/>
+      <c r="B853" s="9"/>
+      <c r="H853" s="9"/>
     </row>
     <row r="854" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B854" s="10"/>
-      <c r="H854" s="10"/>
+      <c r="B854" s="9"/>
+      <c r="H854" s="9"/>
     </row>
     <row r="855" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B855" s="10"/>
-      <c r="H855" s="10"/>
+      <c r="B855" s="9"/>
+      <c r="H855" s="9"/>
     </row>
     <row r="856" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B856" s="10"/>
-      <c r="H856" s="10"/>
+      <c r="B856" s="9"/>
+      <c r="H856" s="9"/>
     </row>
     <row r="857" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B857" s="10"/>
-      <c r="H857" s="10"/>
+      <c r="B857" s="9"/>
+      <c r="H857" s="9"/>
     </row>
     <row r="858" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B858" s="10"/>
-      <c r="H858" s="10"/>
+      <c r="B858" s="9"/>
+      <c r="H858" s="9"/>
     </row>
     <row r="859" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B859" s="10"/>
-      <c r="H859" s="10"/>
+      <c r="B859" s="9"/>
+      <c r="H859" s="9"/>
     </row>
     <row r="860" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B860" s="10"/>
-      <c r="H860" s="10"/>
+      <c r="B860" s="9"/>
+      <c r="H860" s="9"/>
     </row>
     <row r="861" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B861" s="10"/>
-      <c r="H861" s="10"/>
+      <c r="B861" s="9"/>
+      <c r="H861" s="9"/>
     </row>
     <row r="862" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B862" s="10"/>
-      <c r="H862" s="10"/>
+      <c r="B862" s="9"/>
+      <c r="H862" s="9"/>
     </row>
     <row r="863" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B863" s="10"/>
-      <c r="H863" s="10"/>
+      <c r="B863" s="9"/>
+      <c r="H863" s="9"/>
     </row>
     <row r="864" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B864" s="10"/>
-      <c r="H864" s="10"/>
+      <c r="B864" s="9"/>
+      <c r="H864" s="9"/>
     </row>
     <row r="865" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B865" s="10"/>
-      <c r="H865" s="10"/>
+      <c r="B865" s="9"/>
+      <c r="H865" s="9"/>
     </row>
     <row r="866" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B866" s="10"/>
-      <c r="H866" s="10"/>
+      <c r="B866" s="9"/>
+      <c r="H866" s="9"/>
     </row>
     <row r="867" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B867" s="10"/>
-      <c r="H867" s="10"/>
+      <c r="B867" s="9"/>
+      <c r="H867" s="9"/>
     </row>
     <row r="868" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B868" s="10"/>
-      <c r="H868" s="10"/>
+      <c r="B868" s="9"/>
+      <c r="H868" s="9"/>
     </row>
     <row r="869" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B869" s="10"/>
-      <c r="H869" s="10"/>
+      <c r="B869" s="9"/>
+      <c r="H869" s="9"/>
     </row>
     <row r="870" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B870" s="10"/>
-      <c r="H870" s="10"/>
+      <c r="B870" s="9"/>
+      <c r="H870" s="9"/>
     </row>
     <row r="871" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B871" s="10"/>
-      <c r="H871" s="10"/>
+      <c r="B871" s="9"/>
+      <c r="H871" s="9"/>
     </row>
     <row r="872" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B872" s="10"/>
-      <c r="H872" s="10"/>
+      <c r="B872" s="9"/>
+      <c r="H872" s="9"/>
     </row>
     <row r="873" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B873" s="10"/>
-      <c r="H873" s="10"/>
+      <c r="B873" s="9"/>
+      <c r="H873" s="9"/>
     </row>
     <row r="874" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B874" s="10"/>
-      <c r="H874" s="10"/>
+      <c r="B874" s="9"/>
+      <c r="H874" s="9"/>
     </row>
     <row r="875" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B875" s="10"/>
-      <c r="H875" s="10"/>
+      <c r="B875" s="9"/>
+      <c r="H875" s="9"/>
     </row>
     <row r="876" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B876" s="10"/>
-      <c r="H876" s="10"/>
+      <c r="B876" s="9"/>
+      <c r="H876" s="9"/>
     </row>
     <row r="877" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B877" s="10"/>
-      <c r="H877" s="10"/>
+      <c r="B877" s="9"/>
+      <c r="H877" s="9"/>
     </row>
     <row r="878" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B878" s="10"/>
-      <c r="H878" s="10"/>
+      <c r="B878" s="9"/>
+      <c r="H878" s="9"/>
     </row>
     <row r="879" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B879" s="10"/>
-      <c r="H879" s="10"/>
+      <c r="B879" s="9"/>
+      <c r="H879" s="9"/>
     </row>
     <row r="880" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B880" s="10"/>
-      <c r="H880" s="10"/>
+      <c r="B880" s="9"/>
+      <c r="H880" s="9"/>
     </row>
     <row r="881" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B881" s="10"/>
-      <c r="H881" s="10"/>
+      <c r="B881" s="9"/>
+      <c r="H881" s="9"/>
     </row>
     <row r="882" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B882" s="10"/>
-      <c r="H882" s="10"/>
+      <c r="B882" s="9"/>
+      <c r="H882" s="9"/>
     </row>
     <row r="883" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B883" s="10"/>
-      <c r="H883" s="10"/>
+      <c r="B883" s="9"/>
+      <c r="H883" s="9"/>
     </row>
     <row r="884" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B884" s="10"/>
-      <c r="H884" s="10"/>
+      <c r="B884" s="9"/>
+      <c r="H884" s="9"/>
     </row>
     <row r="885" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B885" s="10"/>
-      <c r="H885" s="10"/>
+      <c r="B885" s="9"/>
+      <c r="H885" s="9"/>
     </row>
     <row r="886" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B886" s="10"/>
-      <c r="H886" s="10"/>
+      <c r="B886" s="9"/>
+      <c r="H886" s="9"/>
     </row>
     <row r="887" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B887" s="10"/>
-      <c r="H887" s="10"/>
+      <c r="B887" s="9"/>
+      <c r="H887" s="9"/>
     </row>
     <row r="888" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B888" s="10"/>
-      <c r="H888" s="10"/>
+      <c r="B888" s="9"/>
+      <c r="H888" s="9"/>
     </row>
     <row r="889" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B889" s="10"/>
-      <c r="H889" s="10"/>
+      <c r="B889" s="9"/>
+      <c r="H889" s="9"/>
     </row>
     <row r="890" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B890" s="10"/>
-      <c r="H890" s="10"/>
+      <c r="B890" s="9"/>
+      <c r="H890" s="9"/>
     </row>
     <row r="891" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B891" s="10"/>
-      <c r="H891" s="10"/>
+      <c r="B891" s="9"/>
+      <c r="H891" s="9"/>
     </row>
     <row r="892" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B892" s="10"/>
-      <c r="H892" s="10"/>
+      <c r="B892" s="9"/>
+      <c r="H892" s="9"/>
     </row>
     <row r="893" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B893" s="10"/>
-      <c r="H893" s="10"/>
+      <c r="B893" s="9"/>
+      <c r="H893" s="9"/>
     </row>
     <row r="894" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B894" s="10"/>
-      <c r="H894" s="10"/>
+      <c r="B894" s="9"/>
+      <c r="H894" s="9"/>
     </row>
     <row r="895" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B895" s="10"/>
-      <c r="H895" s="10"/>
+      <c r="B895" s="9"/>
+      <c r="H895" s="9"/>
     </row>
     <row r="896" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B896" s="10"/>
-      <c r="H896" s="10"/>
+      <c r="B896" s="9"/>
+      <c r="H896" s="9"/>
     </row>
     <row r="897" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B897" s="10"/>
-      <c r="H897" s="10"/>
+      <c r="B897" s="9"/>
+      <c r="H897" s="9"/>
     </row>
     <row r="898" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B898" s="10"/>
-      <c r="H898" s="10"/>
+      <c r="B898" s="9"/>
+      <c r="H898" s="9"/>
     </row>
     <row r="899" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B899" s="10"/>
-      <c r="H899" s="10"/>
+      <c r="B899" s="9"/>
+      <c r="H899" s="9"/>
     </row>
     <row r="900" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B900" s="10"/>
-      <c r="H900" s="10"/>
+      <c r="B900" s="9"/>
+      <c r="H900" s="9"/>
     </row>
     <row r="901" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B901" s="10"/>
-      <c r="H901" s="10"/>
+      <c r="B901" s="9"/>
+      <c r="H901" s="9"/>
     </row>
     <row r="902" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B902" s="10"/>
-      <c r="H902" s="10"/>
+      <c r="B902" s="9"/>
+      <c r="H902" s="9"/>
     </row>
     <row r="903" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B903" s="10"/>
-      <c r="H903" s="10"/>
+      <c r="B903" s="9"/>
+      <c r="H903" s="9"/>
     </row>
     <row r="904" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B904" s="10"/>
-      <c r="H904" s="10"/>
+      <c r="B904" s="9"/>
+      <c r="H904" s="9"/>
     </row>
     <row r="905" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B905" s="10"/>
-      <c r="H905" s="10"/>
+      <c r="B905" s="9"/>
+      <c r="H905" s="9"/>
     </row>
     <row r="906" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B906" s="10"/>
-      <c r="H906" s="10"/>
+      <c r="B906" s="9"/>
+      <c r="H906" s="9"/>
     </row>
     <row r="907" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B907" s="10"/>
-      <c r="H907" s="10"/>
+      <c r="B907" s="9"/>
+      <c r="H907" s="9"/>
     </row>
     <row r="908" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B908" s="10"/>
-      <c r="H908" s="10"/>
+      <c r="B908" s="9"/>
+      <c r="H908" s="9"/>
     </row>
     <row r="909" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B909" s="10"/>
-      <c r="H909" s="10"/>
+      <c r="B909" s="9"/>
+      <c r="H909" s="9"/>
     </row>
     <row r="910" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B910" s="10"/>
-      <c r="H910" s="10"/>
+      <c r="B910" s="9"/>
+      <c r="H910" s="9"/>
     </row>
     <row r="911" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B911" s="10"/>
-      <c r="H911" s="10"/>
+      <c r="B911" s="9"/>
+      <c r="H911" s="9"/>
     </row>
     <row r="912" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B912" s="10"/>
-      <c r="H912" s="10"/>
+      <c r="B912" s="9"/>
+      <c r="H912" s="9"/>
     </row>
     <row r="913" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B913" s="10"/>
-      <c r="H913" s="10"/>
+      <c r="B913" s="9"/>
+      <c r="H913" s="9"/>
     </row>
     <row r="914" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B914" s="10"/>
-      <c r="H914" s="10"/>
+      <c r="B914" s="9"/>
+      <c r="H914" s="9"/>
     </row>
     <row r="915" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B915" s="10"/>
-      <c r="H915" s="10"/>
+      <c r="B915" s="9"/>
+      <c r="H915" s="9"/>
     </row>
     <row r="916" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B916" s="10"/>
-      <c r="H916" s="10"/>
+      <c r="B916" s="9"/>
+      <c r="H916" s="9"/>
     </row>
     <row r="917" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B917" s="10"/>
-      <c r="H917" s="10"/>
+      <c r="B917" s="9"/>
+      <c r="H917" s="9"/>
     </row>
     <row r="918" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B918" s="10"/>
-      <c r="H918" s="10"/>
+      <c r="B918" s="9"/>
+      <c r="H918" s="9"/>
     </row>
     <row r="919" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B919" s="10"/>
-      <c r="H919" s="10"/>
+      <c r="B919" s="9"/>
+      <c r="H919" s="9"/>
     </row>
     <row r="920" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B920" s="10"/>
-      <c r="H920" s="10"/>
+      <c r="B920" s="9"/>
+      <c r="H920" s="9"/>
     </row>
     <row r="921" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B921" s="10"/>
-      <c r="H921" s="10"/>
+      <c r="B921" s="9"/>
+      <c r="H921" s="9"/>
     </row>
     <row r="922" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B922" s="10"/>
-      <c r="H922" s="10"/>
+      <c r="B922" s="9"/>
+      <c r="H922" s="9"/>
     </row>
     <row r="923" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B923" s="10"/>
-      <c r="H923" s="10"/>
+      <c r="B923" s="9"/>
+      <c r="H923" s="9"/>
     </row>
     <row r="924" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B924" s="10"/>
-      <c r="H924" s="10"/>
+      <c r="B924" s="9"/>
+      <c r="H924" s="9"/>
     </row>
     <row r="925" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B925" s="10"/>
-      <c r="H925" s="10"/>
+      <c r="B925" s="9"/>
+      <c r="H925" s="9"/>
     </row>
     <row r="926" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B926" s="10"/>
-      <c r="H926" s="10"/>
+      <c r="B926" s="9"/>
+      <c r="H926" s="9"/>
     </row>
     <row r="927" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B927" s="10"/>
-      <c r="H927" s="10"/>
+      <c r="B927" s="9"/>
+      <c r="H927" s="9"/>
     </row>
     <row r="928" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B928" s="10"/>
-      <c r="H928" s="10"/>
+      <c r="B928" s="9"/>
+      <c r="H928" s="9"/>
     </row>
     <row r="929" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B929" s="10"/>
-      <c r="H929" s="10"/>
+      <c r="B929" s="9"/>
+      <c r="H929" s="9"/>
     </row>
     <row r="930" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B930" s="10"/>
-      <c r="H930" s="10"/>
+      <c r="B930" s="9"/>
+      <c r="H930" s="9"/>
     </row>
     <row r="931" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B931" s="10"/>
-      <c r="H931" s="10"/>
+      <c r="B931" s="9"/>
+      <c r="H931" s="9"/>
     </row>
     <row r="932" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B932" s="10"/>
-      <c r="H932" s="10"/>
+      <c r="B932" s="9"/>
+      <c r="H932" s="9"/>
     </row>
     <row r="933" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B933" s="10"/>
-      <c r="H933" s="10"/>
+      <c r="B933" s="9"/>
+      <c r="H933" s="9"/>
     </row>
     <row r="934" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B934" s="10"/>
-      <c r="H934" s="10"/>
+      <c r="B934" s="9"/>
+      <c r="H934" s="9"/>
     </row>
     <row r="935" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B935" s="10"/>
-      <c r="H935" s="10"/>
+      <c r="B935" s="9"/>
+      <c r="H935" s="9"/>
     </row>
     <row r="936" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B936" s="10"/>
-      <c r="H936" s="10"/>
+      <c r="B936" s="9"/>
+      <c r="H936" s="9"/>
     </row>
     <row r="937" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B937" s="10"/>
-      <c r="H937" s="10"/>
+      <c r="B937" s="9"/>
+      <c r="H937" s="9"/>
     </row>
     <row r="938" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B938" s="10"/>
-      <c r="H938" s="10"/>
+      <c r="B938" s="9"/>
+      <c r="H938" s="9"/>
     </row>
     <row r="939" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B939" s="10"/>
-      <c r="H939" s="10"/>
+      <c r="B939" s="9"/>
+      <c r="H939" s="9"/>
     </row>
     <row r="940" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B940" s="10"/>
-      <c r="H940" s="10"/>
+      <c r="B940" s="9"/>
+      <c r="H940" s="9"/>
     </row>
     <row r="941" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B941" s="10"/>
-      <c r="H941" s="10"/>
+      <c r="B941" s="9"/>
+      <c r="H941" s="9"/>
     </row>
     <row r="942" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B942" s="10"/>
-      <c r="H942" s="10"/>
+      <c r="B942" s="9"/>
+      <c r="H942" s="9"/>
     </row>
     <row r="943" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B943" s="10"/>
-      <c r="H943" s="10"/>
+      <c r="B943" s="9"/>
+      <c r="H943" s="9"/>
     </row>
     <row r="944" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B944" s="10"/>
-      <c r="H944" s="10"/>
+      <c r="B944" s="9"/>
+      <c r="H944" s="9"/>
     </row>
     <row r="945" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B945" s="10"/>
-      <c r="H945" s="10"/>
+      <c r="B945" s="9"/>
+      <c r="H945" s="9"/>
     </row>
     <row r="946" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B946" s="10"/>
-      <c r="H946" s="10"/>
+      <c r="B946" s="9"/>
+      <c r="H946" s="9"/>
     </row>
     <row r="947" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B947" s="10"/>
-      <c r="H947" s="10"/>
+      <c r="B947" s="9"/>
+      <c r="H947" s="9"/>
     </row>
     <row r="948" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B948" s="10"/>
-      <c r="H948" s="10"/>
+      <c r="B948" s="9"/>
+      <c r="H948" s="9"/>
     </row>
     <row r="949" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B949" s="10"/>
-      <c r="H949" s="10"/>
+      <c r="B949" s="9"/>
+      <c r="H949" s="9"/>
     </row>
     <row r="950" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B950" s="10"/>
-      <c r="H950" s="10"/>
+      <c r="B950" s="9"/>
+      <c r="H950" s="9"/>
     </row>
     <row r="951" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B951" s="10"/>
-      <c r="H951" s="10"/>
+      <c r="B951" s="9"/>
+      <c r="H951" s="9"/>
     </row>
     <row r="952" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B952" s="10"/>
-      <c r="H952" s="10"/>
+      <c r="B952" s="9"/>
+      <c r="H952" s="9"/>
     </row>
     <row r="953" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B953" s="10"/>
-      <c r="H953" s="10"/>
+      <c r="B953" s="9"/>
+      <c r="H953" s="9"/>
     </row>
     <row r="954" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B954" s="10"/>
-      <c r="H954" s="10"/>
+      <c r="B954" s="9"/>
+      <c r="H954" s="9"/>
     </row>
     <row r="955" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B955" s="10"/>
-      <c r="H955" s="10"/>
+      <c r="B955" s="9"/>
+      <c r="H955" s="9"/>
     </row>
     <row r="956" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B956" s="10"/>
-      <c r="H956" s="10"/>
+      <c r="B956" s="9"/>
+      <c r="H956" s="9"/>
     </row>
     <row r="957" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B957" s="10"/>
-      <c r="H957" s="10"/>
+      <c r="B957" s="9"/>
+      <c r="H957" s="9"/>
     </row>
     <row r="958" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B958" s="10"/>
-      <c r="H958" s="10"/>
+      <c r="B958" s="9"/>
+      <c r="H958" s="9"/>
     </row>
     <row r="959" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B959" s="10"/>
-      <c r="H959" s="10"/>
+      <c r="B959" s="9"/>
+      <c r="H959" s="9"/>
     </row>
     <row r="960" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B960" s="10"/>
-      <c r="H960" s="10"/>
+      <c r="B960" s="9"/>
+      <c r="H960" s="9"/>
     </row>
     <row r="961" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B961" s="10"/>
-      <c r="H961" s="10"/>
+      <c r="B961" s="9"/>
+      <c r="H961" s="9"/>
     </row>
     <row r="962" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B962" s="10"/>
-      <c r="H962" s="10"/>
+      <c r="B962" s="9"/>
+      <c r="H962" s="9"/>
     </row>
     <row r="963" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B963" s="10"/>
-      <c r="H963" s="10"/>
+      <c r="B963" s="9"/>
+      <c r="H963" s="9"/>
     </row>
     <row r="964" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B964" s="10"/>
-      <c r="H964" s="10"/>
+      <c r="B964" s="9"/>
+      <c r="H964" s="9"/>
     </row>
     <row r="965" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B965" s="10"/>
-      <c r="H965" s="10"/>
+      <c r="B965" s="9"/>
+      <c r="H965" s="9"/>
     </row>
     <row r="966" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B966" s="10"/>
-      <c r="H966" s="10"/>
+      <c r="B966" s="9"/>
+      <c r="H966" s="9"/>
     </row>
     <row r="967" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B967" s="10"/>
-      <c r="H967" s="10"/>
+      <c r="B967" s="9"/>
+      <c r="H967" s="9"/>
     </row>
     <row r="968" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B968" s="10"/>
-      <c r="H968" s="10"/>
+      <c r="B968" s="9"/>
+      <c r="H968" s="9"/>
     </row>
     <row r="969" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B969" s="10"/>
-      <c r="H969" s="10"/>
+      <c r="B969" s="9"/>
+      <c r="H969" s="9"/>
     </row>
     <row r="970" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B970" s="10"/>
-      <c r="H970" s="10"/>
+      <c r="B970" s="9"/>
+      <c r="H970" s="9"/>
     </row>
     <row r="971" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B971" s="10"/>
-      <c r="H971" s="10"/>
+      <c r="B971" s="9"/>
+      <c r="H971" s="9"/>
     </row>
     <row r="972" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B972" s="10"/>
-      <c r="H972" s="10"/>
+      <c r="B972" s="9"/>
+      <c r="H972" s="9"/>
     </row>
     <row r="973" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B973" s="10"/>
-      <c r="H973" s="10"/>
+      <c r="B973" s="9"/>
+      <c r="H973" s="9"/>
     </row>
     <row r="974" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B974" s="10"/>
-      <c r="H974" s="10"/>
+      <c r="B974" s="9"/>
+      <c r="H974" s="9"/>
     </row>
     <row r="975" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B975" s="10"/>
-      <c r="H975" s="10"/>
+      <c r="B975" s="9"/>
+      <c r="H975" s="9"/>
     </row>
     <row r="976" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B976" s="10"/>
-      <c r="H976" s="10"/>
+      <c r="B976" s="9"/>
+      <c r="H976" s="9"/>
     </row>
     <row r="977" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B977" s="10"/>
-      <c r="H977" s="10"/>
+      <c r="B977" s="9"/>
+      <c r="H977" s="9"/>
     </row>
     <row r="978" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B978" s="10"/>
-      <c r="H978" s="10"/>
+      <c r="B978" s="9"/>
+      <c r="H978" s="9"/>
     </row>
     <row r="979" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B979" s="10"/>
-      <c r="H979" s="10"/>
+      <c r="B979" s="9"/>
+      <c r="H979" s="9"/>
     </row>
     <row r="980" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B980" s="10"/>
-      <c r="H980" s="10"/>
+      <c r="B980" s="9"/>
+      <c r="H980" s="9"/>
     </row>
     <row r="981" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B981" s="10"/>
-      <c r="H981" s="10"/>
+      <c r="B981" s="9"/>
+      <c r="H981" s="9"/>
     </row>
     <row r="982" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B982" s="10"/>
-      <c r="H982" s="10"/>
+      <c r="B982" s="9"/>
+      <c r="H982" s="9"/>
     </row>
     <row r="983" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B983" s="10"/>
-      <c r="H983" s="10"/>
+      <c r="B983" s="9"/>
+      <c r="H983" s="9"/>
     </row>
     <row r="984" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B984" s="10"/>
-      <c r="H984" s="10"/>
+      <c r="B984" s="9"/>
+      <c r="H984" s="9"/>
     </row>
     <row r="985" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B985" s="10"/>
-      <c r="H985" s="10"/>
+      <c r="B985" s="9"/>
+      <c r="H985" s="9"/>
     </row>
     <row r="986" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B986" s="10"/>
-      <c r="H986" s="10"/>
+      <c r="B986" s="9"/>
+      <c r="H986" s="9"/>
     </row>
     <row r="987" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B987" s="10"/>
-      <c r="H987" s="10"/>
+      <c r="B987" s="9"/>
+      <c r="H987" s="9"/>
     </row>
     <row r="988" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B988" s="10"/>
-      <c r="H988" s="10"/>
+      <c r="B988" s="9"/>
+      <c r="H988" s="9"/>
     </row>
     <row r="989" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B989" s="10"/>
-      <c r="H989" s="10"/>
+      <c r="B989" s="9"/>
+      <c r="H989" s="9"/>
     </row>
     <row r="990" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B990" s="10"/>
-      <c r="H990" s="10"/>
+      <c r="B990" s="9"/>
+      <c r="H990" s="9"/>
     </row>
     <row r="991" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B991" s="10"/>
-      <c r="H991" s="10"/>
+      <c r="B991" s="9"/>
+      <c r="H991" s="9"/>
     </row>
     <row r="992" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B992" s="10"/>
-      <c r="H992" s="10"/>
+      <c r="B992" s="9"/>
+      <c r="H992" s="9"/>
     </row>
     <row r="993" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B993" s="10"/>
-      <c r="H993" s="10"/>
+      <c r="B993" s="9"/>
+      <c r="H993" s="9"/>
     </row>
     <row r="994" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B994" s="10"/>
-      <c r="H994" s="10"/>
+      <c r="B994" s="9"/>
+      <c r="H994" s="9"/>
     </row>
     <row r="995" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B995" s="10"/>
-      <c r="H995" s="10"/>
+      <c r="B995" s="9"/>
+      <c r="H995" s="9"/>
     </row>
     <row r="996" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B996" s="10"/>
-      <c r="H996" s="10"/>
+      <c r="B996" s="9"/>
+      <c r="H996" s="9"/>
     </row>
     <row r="997" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B997" s="10"/>
-      <c r="H997" s="10"/>
+      <c r="B997" s="9"/>
+      <c r="H997" s="9"/>
     </row>
     <row r="998" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B998" s="10"/>
-      <c r="H998" s="10"/>
+      <c r="B998" s="9"/>
+      <c r="H998" s="9"/>
     </row>
     <row r="999" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B999" s="10"/>
-      <c r="H999" s="10"/>
+      <c r="B999" s="9"/>
+      <c r="H999" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A101">
@@ -5369,7 +5752,7 @@
       <formula>AND(OR(NOT(ISBLANK($B2)),NOT(ISBLANK($C2)),NOT(ISBLANK($D2)),NOT(ISBLANK($E2)),NOT(ISBLANK($F2)),NOT(ISBLANK(#REF!)),NOT(ISBLANK($G2)),NOT(ISBLANK($H2)),NOT(ISBLANK($I2))),ISBLANK($A2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H101 J3">
+  <conditionalFormatting sqref="J3 J6 A2:H101">
     <cfRule type="notContainsBlanks" dxfId="14" priority="14">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
@@ -5440,7 +5823,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId1" display="https://cdn.pixabay.com/photo/2014/09/08/09/24/solar-system-439046_1280.jpg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djgvk\PycharmProjects\testQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23ECC66-7C76-4730-9750-F0D0AB95AE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715B1B81-195B-4327-B487-A85FE9BD226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
   <si>
     <t>Multiple Choice</t>
   </si>
@@ -130,9 +130,6 @@
     <t>like fractions</t>
   </si>
   <si>
-    <t>In a garden there are 5 flowers and 2 of them are yellow in color. How to mention this in mathematics?</t>
-  </si>
-  <si>
     <t>2/5</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>not all</t>
   </si>
   <si>
-    <t>There are 3 group of baloons. In each group 3 baloons are there. Out of which 7 were bursted. How will you represent this in fraction?</t>
-  </si>
-  <si>
     <t>6/3</t>
   </si>
   <si>
@@ -209,6 +203,179 @@
   </si>
   <si>
     <t>whole number+proper fraction - this combination is called:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 7 rotis. Out of them, 2 rotis were eaten by Kabila. 1 was eaten by Guru. 
+1. What part of rotis Kabila eat?
+</t>
+  </si>
+  <si>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 7 rotis. Out of them, 2 rotis were eaten by Kabila. 1 was eaten by Guru. 
+1. What part of rotis Guru ate?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 7 rotis. Out of them, 2 rotis were eaten by Kabila. 1 was eaten by Guru. 
+1. What part of rotis left?
+</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>3 4/10</t>
+  </si>
+  <si>
+    <t>34/10</t>
+  </si>
+  <si>
+    <t>How a mixed fraction looks like?</t>
+  </si>
+  <si>
+    <t>whole num . Nr/Dr</t>
+  </si>
+  <si>
+    <t>whole num . Dr/Nr</t>
+  </si>
+  <si>
+    <t>Nr/Dr . Whole num</t>
+  </si>
+  <si>
+    <t>whole num</t>
+  </si>
+  <si>
+    <t>If a fraction has 1 in the Numerator</t>
+  </si>
+  <si>
+    <t>like fraction</t>
+  </si>
+  <si>
+    <t>In a group of 7 baloons, 1 baloon is red. How you say this in fraction?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>none of the above</t>
+  </si>
+  <si>
+    <t>Nr is 1</t>
+  </si>
+  <si>
+    <t>Dr is 1</t>
+  </si>
+  <si>
+    <t>what are a like fractions?</t>
+  </si>
+  <si>
+    <t>Nr of the fractions are same</t>
+  </si>
+  <si>
+    <t>Dr of the fractions are the same</t>
+  </si>
+  <si>
+    <t>The concept of the like fractions - have minimum how many fractions are needed?</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Raju has 7 sweets and Ramesh has 7 sweets. Raju ate all the sweets but Ramesh ate 4 sweets. 
+Fraction of sweets Raju ate = ?
+Fraction of sweets Ramesh ate = ?</t>
+  </si>
+  <si>
+    <t>7/7,  4/7</t>
+  </si>
+  <si>
+    <t>4/7,  7/7</t>
+  </si>
+  <si>
+    <t>5/7,  4/7</t>
+  </si>
+  <si>
+    <t>4/7,  3/7</t>
+  </si>
+  <si>
+    <t>1/7, 2/7, 3/7, 4/5,  6/2, 1/3,  4/7,  4/7 -what are the like fractions in these given fractions?</t>
+  </si>
+  <si>
+    <t>1/7,  2/7,  3/7, 4/7</t>
+  </si>
+  <si>
+    <t>4/5, 6/2, 1/3</t>
+  </si>
+  <si>
+    <t>1/7, 2/7</t>
+  </si>
+  <si>
+    <t>1/7, 2/7, 3/7, 4/5,  6/2, 1/3,  4/7,  4/7 -what are the unlike fractions in these given fractions?</t>
+  </si>
+  <si>
+    <t>1/7,  1/3,  4/5, 6/2</t>
+  </si>
+  <si>
+    <t>By checking what information, you decide like or unlike fractions?</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>whole number</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>Two or more fractions have same denominators - called?</t>
+  </si>
+  <si>
+    <t>unlike fractions</t>
+  </si>
+  <si>
+    <t>Two or more fractions have different denominators?</t>
+  </si>
+  <si>
+    <t>In a garden there are 5 flowers and 2 of them are yellow in color. 
+How to mention this in mathematics?</t>
+  </si>
+  <si>
+    <t>There are 3 group of baloons. In each group 3 baloons are there. 
+Out of which 7 were bursted. 
+How will you represent this in fraction?</t>
+  </si>
+  <si>
+    <t>On your birthday, your family consumed 3 cakes completely. 
+Then you cut another cake into 10 pieces and out of them, your family had 4 pieces. 
+How do you represent this in mathematics?</t>
+  </si>
+  <si>
+    <t>Out of 8 butterflies one of them was in red color. 
+So, what is the fraction of butterflies are red? Is this unit fraction?</t>
   </si>
 </sst>
 </file>
@@ -492,6 +659,139 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1239185" cy="165366"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A063FC-7117-EA66-1033-7F7B7F98F0E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8450580" y="2977515"/>
+              <a:ext cx="1239185" cy="165366"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <a:fld id="{825F15A7-03F4-43D7-82C5-3E23DA2F108C}" type="mathplaceholder">
+                      <a:rPr lang="en-IN" sz="1100" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>Type equation here.</a:t>
+                    </a:fld>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-IN" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A063FC-7117-EA66-1033-7F7B7F98F0E1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8450580" y="2977515"/>
+              <a:ext cx="1239185" cy="165366"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"Type equation here."</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-IN" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -692,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -901,22 +1201,22 @@
     </row>
     <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="6">
         <v>3</v>
@@ -933,7 +1233,7 @@
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>0</v>
@@ -948,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="6">
         <v>3</v>
@@ -965,22 +1265,22 @@
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -997,7 +1297,7 @@
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>0</v>
@@ -1012,7 +1312,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
@@ -1029,7 +1329,7 @@
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>0</v>
@@ -1044,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="6">
         <v>2</v>
@@ -1061,7 +1361,7 @@
     </row>
     <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>0</v>
@@ -1076,7 +1376,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
@@ -1093,7 +1393,7 @@
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>0</v>
@@ -1108,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="6">
         <v>3</v>
@@ -1125,22 +1425,22 @@
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="G14" s="6">
         <v>1</v>
@@ -1155,24 +1455,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1">
+    <row r="15" spans="1:10" ht="12.6" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="F15" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
@@ -1189,7 +1489,7 @@
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>0</v>
@@ -1219,196 +1519,553 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>20</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>20</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4</v>
+      </c>
+      <c r="H19" s="5">
+        <v>20</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>20</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="6">
+        <v>3</v>
+      </c>
+      <c r="H21" s="5">
+        <v>20</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>20</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="6">
+        <v>4</v>
+      </c>
+      <c r="H23" s="5">
+        <v>20</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>20</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="6">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>20</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4</v>
+      </c>
+      <c r="H26" s="5">
+        <v>20</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>20</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>20</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>20</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>20</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>20</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>20</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4</v>
+      </c>
+      <c r="H33" s="5">
+        <v>20</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="11"/>
@@ -1417,9 +2074,9 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="11"/>
@@ -1428,9 +2085,9 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="11"/>
@@ -1439,9 +2096,9 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
       <c r="E37" s="11"/>
@@ -1450,9 +2107,9 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="11"/>
@@ -1461,7 +2118,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="17"/>
@@ -1472,7 +2129,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="17"/>
@@ -1483,7 +2140,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="17"/>
@@ -1494,7 +2151,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="17"/>
@@ -1505,7 +2162,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="17"/>
@@ -1516,7 +2173,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="17"/>
@@ -1527,7 +2184,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="17"/>
@@ -1538,7 +2195,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="17"/>
@@ -1549,7 +2206,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="17"/>
@@ -1560,7 +2217,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1">
+    <row r="48" spans="1:10" ht="12.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="17"/>
@@ -5752,7 +6409,7 @@
       <formula>AND(OR(NOT(ISBLANK($B2)),NOT(ISBLANK($C2)),NOT(ISBLANK($D2)),NOT(ISBLANK($E2)),NOT(ISBLANK($F2)),NOT(ISBLANK(#REF!)),NOT(ISBLANK($G2)),NOT(ISBLANK($H2)),NOT(ISBLANK($I2))),ISBLANK($A2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J6 A2:H101">
+  <conditionalFormatting sqref="A2:H101 J3 J6">
     <cfRule type="notContainsBlanks" dxfId="14" priority="14">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
@@ -5827,5 +6484,6 @@
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>